--- a/notebooks/cgp.xlsx
+++ b/notebooks/cgp.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erinm\Documents\donations\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F0F18A21-A2CC-4D04-AB04-20EC2E035D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353DEEBD-EDFE-4C0C-A7C7-4FBD022DD7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="likely_giving_patterns (2)" sheetId="8" r:id="rId1"/>
@@ -21,16 +21,27 @@
     <sheet name="likely_giving_patterns" sheetId="2" r:id="rId6"/>
     <sheet name="Sheet8" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet11" sheetId="12" r:id="rId8"/>
-    <sheet name="Sheet10" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet9" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="340">
   <si>
     <t>cohort_gift_pattern</t>
   </si>
@@ -1005,12 +1016,57 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>amount_yr0</t>
+  </si>
+  <si>
+    <t>amount_yr1</t>
+  </si>
+  <si>
+    <t>amount_yr2</t>
+  </si>
+  <si>
+    <t>amount_yr3</t>
+  </si>
+  <si>
+    <t>amount_yr4</t>
+  </si>
+  <si>
+    <t>% yr0</t>
+  </si>
+  <si>
+    <t>% yr1</t>
+  </si>
+  <si>
+    <t>% yr2</t>
+  </si>
+  <si>
+    <t>% yr3</t>
+  </si>
+  <si>
+    <t>% yr4</t>
+  </si>
+  <si>
+    <t>rank yr0</t>
+  </si>
+  <si>
+    <t>rank yr1</t>
+  </si>
+  <si>
+    <t>rank yr2</t>
+  </si>
+  <si>
+    <t>rank yr3</t>
+  </si>
+  <si>
+    <t>rank yr4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1734,50 +1790,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1790,34 +1807,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1832,6 +1831,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2204,7 +2260,23 @@
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -2486,23 +2558,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -18674,81 +18730,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:AF19" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A1:AF19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table24" displayName="Table24" ref="A1:AF19" totalsRowShown="0" headerRowDxfId="36">
+  <autoFilter ref="A1:AF19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE19">
     <sortCondition descending="1" ref="C1:C19"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="cohort_gift_pattern"/>
-    <tableColumn id="2" name="# donors"/>
-    <tableColumn id="3" name="%" dataDxfId="18" dataCellStyle="Percent"/>
-    <tableColumn id="4" name="yr0"/>
-    <tableColumn id="5" name="yr1"/>
-    <tableColumn id="6" name="yr2"/>
-    <tableColumn id="7" name="yr3"/>
-    <tableColumn id="8" name="yr4"/>
-    <tableColumn id="9" name="c12"/>
-    <tableColumn id="10" name="%_c12" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="11" name="rank_c12" dataDxfId="16" dataCellStyle="Percent"/>
-    <tableColumn id="12" name="c13"/>
-    <tableColumn id="13" name="%_c13" dataDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="14" name="rank_c13" dataDxfId="14" dataCellStyle="Percent"/>
-    <tableColumn id="15" name="c14"/>
-    <tableColumn id="16" name="%_c14" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="17" name="rank_c14" dataDxfId="12" dataCellStyle="Percent"/>
-    <tableColumn id="18" name="c15"/>
-    <tableColumn id="19" name="%_c15" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="20" name="rank_c15" dataDxfId="10" dataCellStyle="Percent"/>
-    <tableColumn id="21" name="c16"/>
-    <tableColumn id="22" name="%_c16" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="23" name="rank_c16" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="24" name="c17"/>
-    <tableColumn id="25" name="%_c17" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="26" name="rank_c17" dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="27" name="c18"/>
-    <tableColumn id="28" name="%_c18" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="29" name="rank_c18" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="30" name="#_eligible_cohorts"/>
-    <tableColumn id="31" name="#_gift_years">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cohort_gift_pattern"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="# donors"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="%" dataDxfId="35" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="yr0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="yr1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="yr2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="yr3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="yr4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="c12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_c12" dataDxfId="34" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="rank_c12" dataDxfId="33" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="c13"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="%_c13" dataDxfId="32" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="rank_c13" dataDxfId="31" dataCellStyle="Percent"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="c14"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="%_c14" dataDxfId="30" dataCellStyle="Percent"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="rank_c14" dataDxfId="29" dataCellStyle="Percent"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="c15"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="%_c15" dataDxfId="28" dataCellStyle="Percent"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="rank_c15" dataDxfId="27" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="c16"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="%_c16" dataDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="rank_c16" dataDxfId="25" dataCellStyle="Percent"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="c17"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="%_c17" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="rank_c17" dataDxfId="23" dataCellStyle="Percent"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="c18"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="%_c18" dataDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="rank_c18" dataDxfId="21" dataCellStyle="Percent"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="#_eligible_cohorts"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="#_gift_years">
       <calculatedColumnFormula>COUNTIF(Table24[[#This Row],[yr0]:[yr4]],"give")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="Column1"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S16" totalsRowShown="0">
-  <autoFilter ref="A1:S16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:S16" totalsRowShown="0">
+  <autoFilter ref="A1:S16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S16">
     <sortCondition ref="S1:S16"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="cohort_gift_pattern"/>
-    <tableColumn id="2" name="first_gift"/>
-    <tableColumn id="3" name="second_year"/>
-    <tableColumn id="4" name="second_with_gap"/>
-    <tableColumn id="5" name="multi_year"/>
-    <tableColumn id="6" name="key_multi_year"/>
-    <tableColumn id="7" name="recovered_multi_year"/>
-    <tableColumn id="8" name="inconsistent_multi_year "/>
-    <tableColumn id="9" name="recovered_key_multi_year"/>
-    <tableColumn id="10" name="lapsed_after_first"/>
-    <tableColumn id="11" name="lapsed_after_first_long"/>
-    <tableColumn id="12" name="lapsed_after_second"/>
-    <tableColumn id="13" name="lapsed_multi_year"/>
-    <tableColumn id="14" name="lapsed_long_multi_year"/>
-    <tableColumn id="15" name="lapsed_key_multi_year"/>
-    <tableColumn id="16" name="lapsed_long"/>
-    <tableColumn id="17" name="total">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="cohort_gift_pattern"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="first_gift"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="second_year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="second_with_gap"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="multi_year"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="key_multi_year"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="recovered_multi_year"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="inconsistent_multi_year "/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="recovered_key_multi_year"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="lapsed_after_first"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="lapsed_after_first_long"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="lapsed_after_second"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="lapsed_multi_year"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="lapsed_long_multi_year"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="lapsed_key_multi_year"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="lapsed_long"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="total">
       <calculatedColumnFormula>SUM(B2:P2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="%" dataDxfId="36" dataCellStyle="Percent">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="%" dataDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>Q2/$Q$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="rank">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="rank">
       <calculatedColumnFormula>_xlfn.RANK.AVG(R2,$R$2:$R$160)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18757,43 +18813,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AE19" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:AE19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:AE19" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:AE19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE19">
     <sortCondition descending="1" ref="C1:C19"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" name="cohort_gift_pattern"/>
-    <tableColumn id="2" name="Column1"/>
-    <tableColumn id="3" name="%" dataDxfId="35" dataCellStyle="Percent"/>
-    <tableColumn id="4" name="0"/>
-    <tableColumn id="5" name="1"/>
-    <tableColumn id="6" name="2"/>
-    <tableColumn id="7" name="3"/>
-    <tableColumn id="8" name="4"/>
-    <tableColumn id="9" name="c12"/>
-    <tableColumn id="10" name="%_c12" dataDxfId="34" dataCellStyle="Percent"/>
-    <tableColumn id="11" name="rank_c12" dataDxfId="33" dataCellStyle="Percent"/>
-    <tableColumn id="12" name="c13"/>
-    <tableColumn id="13" name="%_c13" dataDxfId="32" dataCellStyle="Percent"/>
-    <tableColumn id="14" name="rank_c13" dataDxfId="31" dataCellStyle="Percent"/>
-    <tableColumn id="15" name="c14"/>
-    <tableColumn id="16" name="%_c14" dataDxfId="30" dataCellStyle="Percent"/>
-    <tableColumn id="17" name="rank_c14" dataDxfId="29" dataCellStyle="Percent"/>
-    <tableColumn id="18" name="c15"/>
-    <tableColumn id="19" name="%_c15" dataDxfId="28" dataCellStyle="Percent"/>
-    <tableColumn id="20" name="rank_c15" dataDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="21" name="c16"/>
-    <tableColumn id="22" name="%_c16" dataDxfId="26" dataCellStyle="Percent"/>
-    <tableColumn id="23" name="rank_c16" dataDxfId="25" dataCellStyle="Percent"/>
-    <tableColumn id="24" name="c17"/>
-    <tableColumn id="25" name="%_c17" dataDxfId="24" dataCellStyle="Percent"/>
-    <tableColumn id="26" name="rank_c17" dataDxfId="23" dataCellStyle="Percent"/>
-    <tableColumn id="27" name="c18"/>
-    <tableColumn id="28" name="%_c18" dataDxfId="22" dataCellStyle="Percent"/>
-    <tableColumn id="29" name="rank_c18" dataDxfId="21" dataCellStyle="Percent"/>
-    <tableColumn id="30" name="#_eligible_cohorts"/>
-    <tableColumn id="31" name="#_gift_years">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="cohort_gift_pattern"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="%" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="c12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_c12" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="rank_c12" dataDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="c13"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="%_c13" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="rank_c13" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="c14"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="%_c14" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="rank_c14" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="c15"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="%_c15" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="rank_c15" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="c16"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="%_c16" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="rank_c16" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="c17"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="%_c17" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="rank_c17" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="c18"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="%_c18" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="rank_c18" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="#_eligible_cohorts"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="#_gift_years">
       <calculatedColumnFormula>COUNTIF(Table2[[#This Row],[0]:[4]],"give")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19097,7 +19153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19231,7 +19287,7 @@
         <v>1696680</v>
       </c>
       <c r="C2" s="2">
-        <f>B2/$B$18</f>
+        <f t="shared" ref="C2:C17" si="0">B2/$B$18</f>
         <v>0.83805124486677063</v>
       </c>
       <c r="D2" t="s">
@@ -19253,77 +19309,77 @@
         <v>102</v>
       </c>
       <c r="J2" s="2">
-        <f>I2/$I$18</f>
+        <f t="shared" ref="J2:J17" si="1">I2/$I$18</f>
         <v>0.72340425531914898</v>
       </c>
       <c r="K2" s="13">
-        <f>_xlfn.RANK.AVG(J2,J$2:J$17)</f>
+        <f t="shared" ref="K2:K17" si="2">_xlfn.RANK.AVG(J2,J$2:J$17)</f>
         <v>1</v>
       </c>
       <c r="L2">
         <v>227808</v>
       </c>
       <c r="M2" s="1">
-        <f>L2/L$18</f>
+        <f t="shared" ref="M2:M17" si="3">L2/L$18</f>
         <v>0.71174652965454321</v>
       </c>
       <c r="N2" s="13">
-        <f>_xlfn.RANK.AVG(M2,M$2:M$17)</f>
+        <f t="shared" ref="N2:N17" si="4">_xlfn.RANK.AVG(M2,M$2:M$17)</f>
         <v>1</v>
       </c>
       <c r="O2">
         <v>246098</v>
       </c>
       <c r="P2" s="1">
-        <f>O2/O$18</f>
+        <f t="shared" ref="P2:P17" si="5">O2/O$18</f>
         <v>0.7674422230745962</v>
       </c>
       <c r="Q2" s="13">
-        <f>_xlfn.RANK.AVG(P2,P$2:P$17)</f>
+        <f t="shared" ref="Q2:Q18" si="6">_xlfn.RANK.AVG(P2,P$2:P$17)</f>
         <v>1</v>
       </c>
       <c r="R2">
         <v>289004</v>
       </c>
       <c r="S2" s="1">
-        <f>R2/R$18</f>
+        <f t="shared" ref="S2:S17" si="7">R2/R$18</f>
         <v>0.81378172367283608</v>
       </c>
       <c r="T2" s="13">
-        <f>_xlfn.RANK.AVG(S2,S$2:S$17)</f>
+        <f t="shared" ref="T2:T17" si="8">_xlfn.RANK.AVG(S2,S$2:S$17)</f>
         <v>1</v>
       </c>
       <c r="U2">
         <v>380722</v>
       </c>
       <c r="V2" s="1">
-        <f>U2/U$18</f>
+        <f t="shared" ref="V2:V17" si="9">U2/U$18</f>
         <v>0.85440688692498623</v>
       </c>
       <c r="W2" s="13">
-        <f>_xlfn.RANK.AVG(V2,V$2:V$17)</f>
+        <f t="shared" ref="W2:W17" si="10">_xlfn.RANK.AVG(V2,V$2:V$17)</f>
         <v>1</v>
       </c>
       <c r="X2">
         <v>405001</v>
       </c>
       <c r="Y2" s="1">
-        <f>X2/X$18</f>
+        <f t="shared" ref="Y2:Y17" si="11">X2/X$18</f>
         <v>0.93105604483770932</v>
       </c>
       <c r="Z2" s="13">
-        <f>_xlfn.RANK.AVG(Y2,Y$2:Y$17)</f>
+        <f t="shared" ref="Z2:Z17" si="12">_xlfn.RANK.AVG(Y2,Y$2:Y$17)</f>
         <v>1</v>
       </c>
       <c r="AA2">
         <v>147945</v>
       </c>
       <c r="AB2" s="1">
-        <f>AA2/AA$18</f>
+        <f t="shared" ref="AB2:AB17" si="13">AA2/AA$18</f>
         <v>1</v>
       </c>
       <c r="AC2" s="13">
-        <f>_xlfn.RANK.AVG(AB2,AB$2:AB$17)</f>
+        <f t="shared" ref="AC2:AC17" si="14">_xlfn.RANK.AVG(AB2,AB$2:AB$17)</f>
         <v>1</v>
       </c>
       <c r="AD2">
@@ -19346,7 +19402,7 @@
         <v>162004</v>
       </c>
       <c r="C3" s="2">
-        <f>B3/$B$18</f>
+        <f t="shared" si="0"/>
         <v>8.0019599378431006E-2</v>
       </c>
       <c r="D3" t="s">
@@ -19368,77 +19424,77 @@
         <v>18</v>
       </c>
       <c r="J3" s="2">
-        <f>I3/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0.1276595744680851</v>
       </c>
       <c r="K3" s="13">
-        <f>_xlfn.RANK.AVG(J3,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L3">
         <v>28817</v>
       </c>
       <c r="M3" s="1">
-        <f>L3/L$18</f>
+        <f t="shared" si="3"/>
         <v>9.0033711480961912E-2</v>
       </c>
       <c r="N3" s="13">
-        <f>_xlfn.RANK.AVG(M3,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O3">
         <v>27958</v>
       </c>
       <c r="P3" s="1">
-        <f>O3/O$18</f>
+        <f t="shared" si="5"/>
         <v>8.7185388230377983E-2</v>
       </c>
       <c r="Q3" s="13">
-        <f>_xlfn.RANK.AVG(P3,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R3">
         <v>29018</v>
       </c>
       <c r="S3" s="1">
-        <f>R3/R$18</f>
+        <f t="shared" si="7"/>
         <v>8.1709312180932997E-2</v>
       </c>
       <c r="T3" s="13">
-        <f>_xlfn.RANK.AVG(S3,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="U3">
         <v>46203</v>
       </c>
       <c r="V3" s="1">
-        <f>U3/U$18</f>
+        <f t="shared" si="9"/>
         <v>0.10368762875955458</v>
       </c>
       <c r="W3" s="13">
-        <f>_xlfn.RANK.AVG(V3,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="X3">
         <v>29990</v>
       </c>
       <c r="Y3" s="1">
-        <f>X3/X$18</f>
+        <f t="shared" si="11"/>
         <v>6.894395516229071E-2</v>
       </c>
       <c r="Z3" s="13">
-        <f>_xlfn.RANK.AVG(Y3,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <f>AA3/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC3" s="13">
-        <f>_xlfn.RANK.AVG(AB3,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD3">
@@ -19461,7 +19517,7 @@
         <v>44403</v>
       </c>
       <c r="C4" s="2">
-        <f>B4/$B$18</f>
+        <f t="shared" si="0"/>
         <v>2.1932237915116119E-2</v>
       </c>
       <c r="D4" t="s">
@@ -19483,77 +19539,77 @@
         <v>2</v>
       </c>
       <c r="J4" s="2">
-        <f>I4/$I$18</f>
+        <f t="shared" si="1"/>
         <v>1.4184397163120567E-2</v>
       </c>
       <c r="K4" s="13">
-        <f>_xlfn.RANK.AVG(J4,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L4">
         <v>10390</v>
       </c>
       <c r="M4" s="1">
-        <f>L4/L$18</f>
+        <f t="shared" si="3"/>
         <v>3.2461750435062442E-2</v>
       </c>
       <c r="N4" s="13">
-        <f>_xlfn.RANK.AVG(M4,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="O4">
         <v>11268</v>
       </c>
       <c r="P4" s="1">
-        <f>O4/O$18</f>
+        <f t="shared" si="5"/>
         <v>3.5138599133696942E-2</v>
       </c>
       <c r="Q4" s="13">
-        <f>_xlfn.RANK.AVG(P4,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="R4">
         <v>14405</v>
       </c>
       <c r="S4" s="1">
-        <f>R4/R$18</f>
+        <f t="shared" si="7"/>
         <v>4.056181135730718E-2</v>
       </c>
       <c r="T4" s="13">
-        <f>_xlfn.RANK.AVG(S4,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="U4">
         <v>8338</v>
       </c>
       <c r="V4" s="1">
-        <f>U4/U$18</f>
+        <f t="shared" si="9"/>
         <v>1.871193317743796E-2</v>
       </c>
       <c r="W4" s="13">
-        <f>_xlfn.RANK.AVG(V4,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <f>X4/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z4" s="13">
-        <f>_xlfn.RANK.AVG(Y4,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <f>AA4/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC4" s="13">
-        <f>_xlfn.RANK.AVG(AB4,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD4">
@@ -19576,7 +19632,7 @@
         <v>37639</v>
       </c>
       <c r="C5" s="2">
-        <f>B5/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.8591255160395819E-2</v>
       </c>
       <c r="D5" t="s">
@@ -19598,77 +19654,77 @@
         <v>5</v>
       </c>
       <c r="J5" s="2">
-        <f>I5/$I$18</f>
+        <f t="shared" si="1"/>
         <v>3.5460992907801421E-2</v>
       </c>
       <c r="K5" s="13">
-        <f>_xlfn.RANK.AVG(J5,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L5">
         <v>9423</v>
       </c>
       <c r="M5" s="1">
-        <f>L5/L$18</f>
+        <f t="shared" si="3"/>
         <v>2.9440526886390123E-2</v>
       </c>
       <c r="N5" s="13">
-        <f>_xlfn.RANK.AVG(M5,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="O5">
         <v>7150</v>
       </c>
       <c r="P5" s="1">
-        <f>O5/O$18</f>
+        <f t="shared" si="5"/>
         <v>2.2296856922784269E-2</v>
       </c>
       <c r="Q5" s="13">
-        <f>_xlfn.RANK.AVG(P5,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="R5">
         <v>10726</v>
       </c>
       <c r="S5" s="1">
-        <f>R5/R$18</f>
+        <f t="shared" si="7"/>
         <v>3.0202428921796379E-2</v>
       </c>
       <c r="T5" s="13">
-        <f>_xlfn.RANK.AVG(S5,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="U5">
         <v>10335</v>
       </c>
       <c r="V5" s="1">
-        <f>U5/U$18</f>
+        <f t="shared" si="9"/>
         <v>2.3193551138021264E-2</v>
       </c>
       <c r="W5" s="13">
-        <f>_xlfn.RANK.AVG(V5,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <f>X5/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z5" s="13">
-        <f>_xlfn.RANK.AVG(Y5,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <f>AA5/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC5" s="13">
-        <f>_xlfn.RANK.AVG(AB5,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD5">
@@ -19691,7 +19747,7 @@
         <v>17619</v>
       </c>
       <c r="C6" s="2">
-        <f>B6/$B$18</f>
+        <f t="shared" si="0"/>
         <v>8.7026574741893778E-3</v>
       </c>
       <c r="D6" t="s">
@@ -19713,77 +19769,77 @@
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <f>I6/$I$18</f>
+        <f t="shared" si="1"/>
         <v>2.8368794326241134E-2</v>
       </c>
       <c r="K6" s="13">
-        <f>_xlfn.RANK.AVG(J6,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="L6">
         <v>6773</v>
       </c>
       <c r="M6" s="1">
-        <f>L6/L$18</f>
+        <f t="shared" si="3"/>
         <v>2.1161062145974775E-2</v>
       </c>
       <c r="N6" s="13">
-        <f>_xlfn.RANK.AVG(M6,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O6">
         <v>7307</v>
       </c>
       <c r="P6" s="1">
-        <f>O6/O$18</f>
+        <f t="shared" si="5"/>
         <v>2.2786452242627226E-2</v>
       </c>
       <c r="Q6" s="13">
-        <f>_xlfn.RANK.AVG(P6,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="R6">
         <v>3535</v>
       </c>
       <c r="S6" s="1">
-        <f>R6/R$18</f>
+        <f t="shared" si="7"/>
         <v>9.9539051126748268E-3</v>
       </c>
       <c r="T6" s="13">
-        <f>_xlfn.RANK.AVG(S6,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <f>U6/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W6" s="13">
-        <f>_xlfn.RANK.AVG(V6,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <f>X6/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z6" s="13">
-        <f>_xlfn.RANK.AVG(Y6,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <f>AA6/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC6" s="13">
-        <f>_xlfn.RANK.AVG(AB6,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD6">
@@ -19806,7 +19862,7 @@
         <v>13781</v>
       </c>
       <c r="C7" s="2">
-        <f>B7/$B$18</f>
+        <f t="shared" si="0"/>
         <v>6.806931304376174E-3</v>
       </c>
       <c r="D7" t="s">
@@ -19828,77 +19884,77 @@
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <f>I7/$I$18</f>
+        <f t="shared" si="1"/>
         <v>7.0921985815602835E-3</v>
       </c>
       <c r="K7" s="13">
-        <f>_xlfn.RANK.AVG(J7,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
       <c r="L7">
         <v>4442</v>
       </c>
       <c r="M7" s="1">
-        <f>L7/L$18</f>
+        <f t="shared" si="3"/>
         <v>1.3878257500726406E-2</v>
       </c>
       <c r="N7" s="13">
-        <f>_xlfn.RANK.AVG(M7,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O7">
         <v>4741</v>
       </c>
       <c r="P7" s="1">
-        <f>O7/O$18</f>
+        <f t="shared" si="5"/>
         <v>1.4784531282646184E-2</v>
       </c>
       <c r="Q7" s="13">
-        <f>_xlfn.RANK.AVG(P7,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="R7">
         <v>4597</v>
       </c>
       <c r="S7" s="1">
-        <f>R7/R$18</f>
+        <f t="shared" si="7"/>
         <v>1.294430036859015E-2</v>
       </c>
       <c r="T7" s="13">
-        <f>_xlfn.RANK.AVG(S7,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <f>U7/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W7" s="13">
-        <f>_xlfn.RANK.AVG(V7,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <f>X7/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z7" s="13">
-        <f>_xlfn.RANK.AVG(Y7,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <f>AA7/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC7" s="13">
-        <f>_xlfn.RANK.AVG(AB7,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD7">
@@ -19921,7 +19977,7 @@
         <v>13102</v>
       </c>
       <c r="C8" s="2">
-        <f>B8/$B$18</f>
+        <f t="shared" si="0"/>
         <v>6.4715487954384024E-3</v>
       </c>
       <c r="D8" t="s">
@@ -19943,77 +19999,77 @@
         <v>4</v>
       </c>
       <c r="J8" s="2">
-        <f>I8/$I$18</f>
+        <f t="shared" si="1"/>
         <v>2.8368794326241134E-2</v>
       </c>
       <c r="K8" s="13">
-        <f>_xlfn.RANK.AVG(J8,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="L8">
         <v>9878</v>
       </c>
       <c r="M8" s="1">
-        <f>L8/L$18</f>
+        <f t="shared" si="3"/>
         <v>3.086209536068785E-2</v>
       </c>
       <c r="N8" s="13">
-        <f>_xlfn.RANK.AVG(M8,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O8">
         <v>3220</v>
       </c>
       <c r="P8" s="1">
-        <f>O8/O$18</f>
+        <f t="shared" si="5"/>
         <v>1.0041381719072076E-2</v>
       </c>
       <c r="Q8" s="13">
-        <f>_xlfn.RANK.AVG(P8,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <f>R8/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T8" s="13">
-        <f>_xlfn.RANK.AVG(S8,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <f>U8/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W8" s="13">
-        <f>_xlfn.RANK.AVG(V8,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <f>X8/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z8" s="13">
-        <f>_xlfn.RANK.AVG(Y8,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <f>AA8/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC8" s="13">
-        <f>_xlfn.RANK.AVG(AB8,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD8">
@@ -20036,7 +20092,7 @@
         <v>8134</v>
       </c>
       <c r="C9" s="2">
-        <f>B9/$B$18</f>
+        <f t="shared" si="0"/>
         <v>4.017675003976184E-3</v>
       </c>
       <c r="D9" t="s">
@@ -20058,77 +20114,77 @@
         <v>2</v>
       </c>
       <c r="J9" s="2">
-        <f>I9/$I$18</f>
+        <f t="shared" si="1"/>
         <v>1.4184397163120567E-2</v>
       </c>
       <c r="K9" s="13">
-        <f>_xlfn.RANK.AVG(J9,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L9">
         <v>3075</v>
       </c>
       <c r="M9" s="1">
-        <f>L9/L$18</f>
+        <f t="shared" si="3"/>
         <v>9.6073034251989414E-3</v>
       </c>
       <c r="N9" s="13">
-        <f>_xlfn.RANK.AVG(M9,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="O9">
         <v>3320</v>
       </c>
       <c r="P9" s="1">
-        <f>O9/O$18</f>
+        <f t="shared" si="5"/>
         <v>1.035322587183829E-2</v>
       </c>
       <c r="Q9" s="13">
-        <f>_xlfn.RANK.AVG(P9,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="R9">
         <v>1737</v>
       </c>
       <c r="S9" s="1">
-        <f>R9/R$18</f>
+        <f t="shared" si="7"/>
         <v>4.8910702067089598E-3</v>
       </c>
       <c r="T9" s="13">
-        <f>_xlfn.RANK.AVG(S9,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <f>U9/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W9" s="13">
-        <f>_xlfn.RANK.AVG(V9,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <f>X9/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z9" s="13">
-        <f>_xlfn.RANK.AVG(Y9,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <f>AA9/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC9" s="13">
-        <f>_xlfn.RANK.AVG(AB9,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD9">
@@ -20151,7 +20207,7 @@
         <v>7626</v>
       </c>
       <c r="C10" s="2">
-        <f>B10/$B$18</f>
+        <f t="shared" si="0"/>
         <v>3.7667555422083087E-3</v>
       </c>
       <c r="D10" t="s">
@@ -20173,77 +20229,77 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <f>I10/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="13">
-        <f>_xlfn.RANK.AVG(J10,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L10">
         <v>2412</v>
       </c>
       <c r="M10" s="1">
-        <f>L10/L$18</f>
+        <f t="shared" si="3"/>
         <v>7.5358750769365353E-3</v>
       </c>
       <c r="N10" s="13">
-        <f>_xlfn.RANK.AVG(M10,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O10">
         <v>3099</v>
       </c>
       <c r="P10" s="1">
-        <f>O10/O$18</f>
+        <f t="shared" si="5"/>
         <v>9.6640502942249573E-3</v>
       </c>
       <c r="Q10" s="13">
-        <f>_xlfn.RANK.AVG(P10,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="R10">
         <v>2115</v>
       </c>
       <c r="S10" s="1">
-        <f>R10/R$18</f>
+        <f t="shared" si="7"/>
         <v>5.9554481791533973E-3</v>
       </c>
       <c r="T10" s="13">
-        <f>_xlfn.RANK.AVG(S10,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <f>U10/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W10" s="13">
-        <f>_xlfn.RANK.AVG(V10,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <f>X10/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z10" s="13">
-        <f>_xlfn.RANK.AVG(Y10,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <f>AA10/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC10" s="13">
-        <f>_xlfn.RANK.AVG(AB10,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD10">
@@ -20266,7 +20322,7 @@
         <v>6912</v>
       </c>
       <c r="C11" s="2">
-        <f>B11/$B$18</f>
+        <f t="shared" si="0"/>
         <v>3.4140852750778692E-3</v>
       </c>
       <c r="D11" t="s">
@@ -20288,77 +20344,77 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <f>I11/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="13">
-        <f>_xlfn.RANK.AVG(J11,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L11">
         <v>5010</v>
       </c>
       <c r="M11" s="1">
-        <f>L11/L$18</f>
+        <f t="shared" si="3"/>
         <v>1.5652874848860715E-2</v>
       </c>
       <c r="N11" s="13">
-        <f>_xlfn.RANK.AVG(M11,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="O11">
         <v>1902</v>
       </c>
       <c r="P11" s="1">
-        <f>O11/O$18</f>
+        <f t="shared" si="5"/>
         <v>5.9312757856133822E-3</v>
       </c>
       <c r="Q11" s="13">
-        <f>_xlfn.RANK.AVG(P11,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <f>R11/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T11" s="13">
-        <f>_xlfn.RANK.AVG(S11,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <f>U11/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W11" s="13">
-        <f>_xlfn.RANK.AVG(V11,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <f>X11/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z11" s="13">
-        <f>_xlfn.RANK.AVG(Y11,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <f>AA11/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC11" s="13">
-        <f>_xlfn.RANK.AVG(AB11,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD11">
@@ -20381,7 +20437,7 @@
         <v>3108</v>
       </c>
       <c r="C12" s="2">
-        <f>B12/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.5351529275089723E-3</v>
       </c>
       <c r="D12" t="s">
@@ -20403,77 +20459,77 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <f>I12/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="13">
-        <f>_xlfn.RANK.AVG(J12,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L12">
         <v>2195</v>
       </c>
       <c r="M12" s="1">
-        <f>L12/L$18</f>
+        <f t="shared" si="3"/>
         <v>6.857896266117618E-3</v>
       </c>
       <c r="N12" s="13">
-        <f>_xlfn.RANK.AVG(M12,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="O12">
         <v>913</v>
       </c>
       <c r="P12" s="1">
-        <f>O12/O$18</f>
+        <f t="shared" si="5"/>
         <v>2.8471371147555297E-3</v>
       </c>
       <c r="Q12" s="13">
-        <f>_xlfn.RANK.AVG(P12,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <f>R12/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T12" s="13">
-        <f>_xlfn.RANK.AVG(S12,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <f>U12/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W12" s="13">
-        <f>_xlfn.RANK.AVG(V12,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <f>X12/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z12" s="13">
-        <f>_xlfn.RANK.AVG(Y12,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <f>AA12/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC12" s="13">
-        <f>_xlfn.RANK.AVG(AB12,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD12">
@@ -20496,7 +20552,7 @@
         <v>2994</v>
       </c>
       <c r="C13" s="2">
-        <f>B13/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.4788442293957088E-3</v>
       </c>
       <c r="D13" t="s">
@@ -20518,77 +20574,77 @@
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <f>I13/$I$18</f>
+        <f t="shared" si="1"/>
         <v>7.0921985815602835E-3</v>
       </c>
       <c r="K13" s="13">
-        <f>_xlfn.RANK.AVG(J13,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
       <c r="L13">
         <v>2196</v>
       </c>
       <c r="M13" s="1">
-        <f>L13/L$18</f>
+        <f t="shared" si="3"/>
         <v>6.8610205924347564E-3</v>
       </c>
       <c r="N13" s="13">
-        <f>_xlfn.RANK.AVG(M13,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="O13">
         <v>797</v>
       </c>
       <c r="P13" s="1">
-        <f>O13/O$18</f>
+        <f t="shared" si="5"/>
         <v>2.4853978975467221E-3</v>
       </c>
       <c r="Q13" s="13">
-        <f>_xlfn.RANK.AVG(P13,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <f>R13/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T13" s="13">
-        <f>_xlfn.RANK.AVG(S13,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <f>U13/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W13" s="13">
-        <f>_xlfn.RANK.AVG(V13,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <f>X13/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z13" s="13">
-        <f>_xlfn.RANK.AVG(Y13,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <f>AA13/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC13" s="13">
-        <f>_xlfn.RANK.AVG(AB13,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD13">
@@ -20611,7 +20667,7 @@
         <v>2967</v>
       </c>
       <c r="C14" s="2">
-        <f>B14/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.4655079587899359E-3</v>
       </c>
       <c r="D14" t="s">
@@ -20633,77 +20689,77 @@
         <v>2</v>
       </c>
       <c r="J14" s="2">
-        <f>I14/$I$18</f>
+        <f t="shared" si="1"/>
         <v>1.4184397163120567E-2</v>
       </c>
       <c r="K14" s="13">
-        <f>_xlfn.RANK.AVG(J14,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L14">
         <v>2337</v>
       </c>
       <c r="M14" s="1">
-        <f>L14/L$18</f>
+        <f t="shared" si="3"/>
         <v>7.3015506031511952E-3</v>
       </c>
       <c r="N14" s="13">
-        <f>_xlfn.RANK.AVG(M14,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="O14">
         <v>628</v>
       </c>
       <c r="P14" s="1">
-        <f>O14/O$18</f>
+        <f t="shared" si="5"/>
         <v>1.9583812793718212E-3</v>
       </c>
       <c r="Q14" s="13">
-        <f>_xlfn.RANK.AVG(P14,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <f>R14/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T14" s="13">
-        <f>_xlfn.RANK.AVG(S14,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <f>U14/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W14" s="13">
-        <f>_xlfn.RANK.AVG(V14,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <f>X14/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z14" s="13">
-        <f>_xlfn.RANK.AVG(Y14,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <f>AA14/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC14" s="13">
-        <f>_xlfn.RANK.AVG(AB14,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD14">
@@ -20726,7 +20782,7 @@
         <v>2815</v>
       </c>
       <c r="C15" s="2">
-        <f>B15/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.3904296946389181E-3</v>
       </c>
       <c r="D15" t="s">
@@ -20748,77 +20804,77 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f>I15/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="13">
-        <f>_xlfn.RANK.AVG(J15,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L15">
         <v>1962</v>
       </c>
       <c r="M15" s="1">
-        <f>L15/L$18</f>
+        <f t="shared" si="3"/>
         <v>6.1299282342244955E-3</v>
       </c>
       <c r="N15" s="13">
-        <f>_xlfn.RANK.AVG(M15,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="O15">
         <v>853</v>
       </c>
       <c r="P15" s="1">
-        <f>O15/O$18</f>
+        <f t="shared" si="5"/>
         <v>2.6600306230958018E-3</v>
       </c>
       <c r="Q15" s="13">
-        <f>_xlfn.RANK.AVG(P15,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <f>R15/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T15" s="13">
-        <f>_xlfn.RANK.AVG(S15,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <f>U15/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W15" s="13">
-        <f>_xlfn.RANK.AVG(V15,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <f>X15/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z15" s="13">
-        <f>_xlfn.RANK.AVG(Y15,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <f>AA15/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC15" s="13">
-        <f>_xlfn.RANK.AVG(AB15,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD15">
@@ -20841,7 +20897,7 @@
         <v>2735</v>
       </c>
       <c r="C16" s="2">
-        <f>B16/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.3509148187699613E-3</v>
       </c>
       <c r="D16" t="s">
@@ -20863,77 +20919,77 @@
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <f>I16/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="13">
-        <f>_xlfn.RANK.AVG(J16,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L16">
         <v>1898</v>
       </c>
       <c r="M16" s="1">
-        <f>L16/L$18</f>
+        <f t="shared" si="3"/>
         <v>5.9299713499276719E-3</v>
       </c>
       <c r="N16" s="13">
-        <f>_xlfn.RANK.AVG(M16,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="O16">
         <v>837</v>
       </c>
       <c r="P16" s="1">
-        <f>O16/O$18</f>
+        <f t="shared" si="5"/>
         <v>2.6101355586532074E-3</v>
       </c>
       <c r="Q16" s="13">
-        <f>_xlfn.RANK.AVG(P16,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <f>R16/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T16" s="13">
-        <f>_xlfn.RANK.AVG(S16,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <f>U16/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W16" s="13">
-        <f>_xlfn.RANK.AVG(V16,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <f>X16/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z16" s="13">
-        <f>_xlfn.RANK.AVG(Y16,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16" s="1">
-        <f>AA16/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC16" s="13">
-        <f>_xlfn.RANK.AVG(AB16,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD16">
@@ -20956,7 +21012,7 @@
         <v>2035</v>
       </c>
       <c r="C17" s="2">
-        <f>B17/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.0051596549165891E-3</v>
       </c>
       <c r="D17" t="s">
@@ -20978,77 +21034,77 @@
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <f>I17/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <f>_xlfn.RANK.AVG(J17,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L17">
         <v>1453</v>
       </c>
       <c r="M17" s="1">
-        <f>L17/L$18</f>
+        <f t="shared" si="3"/>
         <v>4.5396461388013207E-3</v>
       </c>
       <c r="N17" s="13">
-        <f>_xlfn.RANK.AVG(M17,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="O17">
         <v>582</v>
       </c>
       <c r="P17" s="1">
-        <f>O17/O$18</f>
+        <f t="shared" si="5"/>
         <v>1.8149329690993628E-3</v>
       </c>
       <c r="Q17" s="13">
-        <f>_xlfn.RANK.AVG(P17,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <f>R17/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T17" s="13">
-        <f>_xlfn.RANK.AVG(S17,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <f>U17/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W17" s="13">
-        <f>_xlfn.RANK.AVG(V17,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <f>X17/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z17" s="13">
-        <f>_xlfn.RANK.AVG(Y17,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <f>AA17/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC17" s="13">
-        <f>_xlfn.RANK.AVG(AB17,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD17">
@@ -21089,7 +21145,7 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="Q18" s="13" t="e">
-        <f>_xlfn.RANK.AVG(P18,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="R18">
@@ -21198,7 +21254,7 @@
         <v>109</v>
       </c>
       <c r="I23">
-        <f>COUNTIF(D23:H23,"give")</f>
+        <f t="shared" ref="I23:I38" si="15">COUNTIF(D23:H23,"give")</f>
         <v>1</v>
       </c>
       <c r="J23" s="16" t="s">
@@ -21225,7 +21281,7 @@
         <v>109</v>
       </c>
       <c r="I24">
-        <f>COUNTIF(D24:H24,"give")</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J24" s="16" t="s">
@@ -21252,7 +21308,7 @@
         <v>109</v>
       </c>
       <c r="I25">
-        <f>COUNTIF(D25:H25,"give")</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J25" s="16" t="s">
@@ -21279,7 +21335,7 @@
         <v>109</v>
       </c>
       <c r="I26">
-        <f>COUNTIF(D26:H26,"give")</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J26" s="16" t="s">
@@ -21306,7 +21362,7 @@
         <v>108</v>
       </c>
       <c r="I27">
-        <f>COUNTIF(D27:H27,"give")</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J27" s="16" t="s">
@@ -21333,7 +21389,7 @@
         <v>109</v>
       </c>
       <c r="I28">
-        <f>COUNTIF(D28:H28,"give")</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J28" s="16" t="s">
@@ -21360,7 +21416,7 @@
         <v>109</v>
       </c>
       <c r="I29">
-        <f>COUNTIF(D29:H29,"give")</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J29" s="16" t="s">
@@ -21387,7 +21443,7 @@
         <v>108</v>
       </c>
       <c r="I30">
-        <f>COUNTIF(D30:H30,"give")</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J30" s="16" t="s">
@@ -21414,7 +21470,7 @@
         <v>109</v>
       </c>
       <c r="I31">
-        <f>COUNTIF(D31:H31,"give")</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J31" s="16" t="s">
@@ -21441,7 +21497,7 @@
         <v>108</v>
       </c>
       <c r="I32">
-        <f>COUNTIF(D32:H32,"give")</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J32" s="16" t="s">
@@ -21468,7 +21524,7 @@
         <v>108</v>
       </c>
       <c r="I33">
-        <f>COUNTIF(D33:H33,"give")</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J33" s="16" t="s">
@@ -21495,7 +21551,7 @@
         <v>109</v>
       </c>
       <c r="I34">
-        <f>COUNTIF(D34:H34,"give")</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="J34" s="16" t="s">
@@ -21522,7 +21578,7 @@
         <v>108</v>
       </c>
       <c r="I35">
-        <f>COUNTIF(D35:H35,"give")</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="J35" s="16" t="s">
@@ -21549,7 +21605,7 @@
         <v>108</v>
       </c>
       <c r="I36">
-        <f>COUNTIF(D36:H36,"give")</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="J36" s="16" t="s">
@@ -21576,7 +21632,7 @@
         <v>108</v>
       </c>
       <c r="I37">
-        <f>COUNTIF(D37:H37,"give")</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="J37" s="16" t="s">
@@ -21603,7 +21659,7 @@
         <v>108</v>
       </c>
       <c r="I38">
-        <f>COUNTIF(D38:H38,"give")</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="J38" s="16" t="s">
@@ -21654,7 +21710,7 @@
       <c r="B45" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="35" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="20" t="s">
@@ -21671,7 +21727,7 @@
       <c r="B46" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="20" t="s">
@@ -21688,7 +21744,7 @@
       <c r="B47" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="20" t="s">
@@ -21705,7 +21761,7 @@
       <c r="B48" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="35" t="s">
         <v>102</v>
       </c>
       <c r="D48" s="20" t="s">
@@ -21722,7 +21778,7 @@
       <c r="B49" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="20" t="s">
@@ -21739,7 +21795,7 @@
       <c r="B50" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="20" t="s">
@@ -21756,7 +21812,7 @@
       <c r="B51" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -21773,7 +21829,7 @@
       <c r="B52" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="35" t="s">
         <v>100</v>
       </c>
       <c r="D52" s="20" t="s">
@@ -21875,10 +21931,102 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:S16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.76953125" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="16384" width="6.76953125" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="K1" s="40" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="40">
+        <v>2</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="40">
+        <v>3</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q7" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="40">
+        <v>4</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A10" s="40">
+        <v>2</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A12" s="40">
+        <v>3</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="I16" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -22259,7 +22407,7 @@
       <c r="B20" t="s">
         <v>256</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="36">
         <f>E18</f>
         <v>243403</v>
       </c>
@@ -22326,7 +22474,7 @@
       <c r="B23" t="s">
         <v>307</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="36">
         <f>SUM(G5,G7,G8,G14)</f>
         <v>67477</v>
       </c>
@@ -22341,7 +22489,7 @@
       <c r="B24" t="s">
         <v>294</v>
       </c>
-      <c r="G24" s="55">
+      <c r="G24" s="36">
         <f>SUM(G4,G10,G16,G17)</f>
         <v>56797</v>
       </c>
@@ -22628,8 +22776,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22664,7 +22812,7 @@
       <c r="B4" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="60" t="s">
         <v>190</v>
       </c>
     </row>
@@ -22672,7 +22820,7 @@
       <c r="B5" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C6" s="20"/>
@@ -22684,10 +22832,10 @@
       <c r="B7" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="60" t="s">
         <v>190</v>
       </c>
     </row>
@@ -22695,20 +22843,20 @@
       <c r="B8" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="B10" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="D11" s="20"/>
@@ -22720,7 +22868,7 @@
       <c r="B12" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="60" t="s">
         <v>195</v>
       </c>
     </row>
@@ -22728,7 +22876,7 @@
       <c r="B13" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="60"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
@@ -23209,7 +23357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23348,15 +23496,15 @@
         <v>761679</v>
       </c>
       <c r="Q2">
-        <f>SUM(B2:P2)</f>
+        <f t="shared" ref="Q2:Q16" si="0">SUM(B2:P2)</f>
         <v>1696680</v>
       </c>
       <c r="R2" s="2">
-        <f>Q2/$Q$17</f>
+        <f t="shared" ref="R2:R16" si="1">Q2/$Q$17</f>
         <v>0.83967912961755964</v>
       </c>
       <c r="S2">
-        <f>_xlfn.RANK.AVG(R2,$R$2:$R$160)</f>
+        <f t="shared" ref="S2:S16" si="2">_xlfn.RANK.AVG(R2,$R$2:$R$160)</f>
         <v>1</v>
       </c>
     </row>
@@ -23410,15 +23558,15 @@
         <v>85348</v>
       </c>
       <c r="Q3">
-        <f>SUM(B3:P3)</f>
+        <f t="shared" si="0"/>
         <v>162004</v>
       </c>
       <c r="R3" s="2">
-        <f>Q3/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>8.0175034605560941E-2</v>
       </c>
       <c r="S3">
-        <f>_xlfn.RANK.AVG(R3,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -23472,15 +23620,15 @@
         <v>21406</v>
       </c>
       <c r="Q4">
-        <f>SUM(B4:P4)</f>
+        <f t="shared" si="0"/>
         <v>44403</v>
       </c>
       <c r="R4" s="2">
-        <f>Q4/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>2.1974840507584519E-2</v>
       </c>
       <c r="S4">
-        <f>_xlfn.RANK.AVG(R4,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -23534,15 +23682,15 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUM(B5:P5)</f>
+        <f t="shared" si="0"/>
         <v>37639</v>
       </c>
       <c r="R5" s="2">
-        <f>Q5/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>1.8627368012633691E-2</v>
       </c>
       <c r="S5">
-        <f>_xlfn.RANK.AVG(R5,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -23596,15 +23744,15 @@
         <v>3</v>
       </c>
       <c r="Q6">
-        <f>SUM(B6:P6)</f>
+        <f t="shared" si="0"/>
         <v>17619</v>
       </c>
       <c r="R6" s="2">
-        <f>Q6/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>8.7195620769572255E-3</v>
       </c>
       <c r="S6">
-        <f>_xlfn.RANK.AVG(R6,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -23658,15 +23806,15 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>SUM(B7:P7)</f>
+        <f t="shared" si="0"/>
         <v>15836</v>
       </c>
       <c r="R7" s="2">
-        <f>Q7/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>7.8371635762923327E-3</v>
       </c>
       <c r="S7">
-        <f>_xlfn.RANK.AVG(R7,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -23720,15 +23868,15 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUM(B8:P8)</f>
+        <f t="shared" si="0"/>
         <v>9857</v>
       </c>
       <c r="R8" s="2">
-        <f>Q8/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>4.8781839714267189E-3</v>
       </c>
       <c r="S8">
-        <f>_xlfn.RANK.AVG(R8,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -23782,15 +23930,15 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>SUM(B9:P9)</f>
+        <f t="shared" si="0"/>
         <v>8134</v>
       </c>
       <c r="R9" s="2">
-        <f>Q9/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>4.0254791948447733E-3</v>
       </c>
       <c r="S9">
-        <f>_xlfn.RANK.AVG(R9,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -23844,15 +23992,15 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>SUM(B10:P10)</f>
+        <f t="shared" si="0"/>
         <v>7626</v>
       </c>
       <c r="R10" s="2">
-        <f>Q10/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>3.7740723309424937E-3</v>
       </c>
       <c r="S10">
-        <f>_xlfn.RANK.AVG(R10,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -23906,15 +24054,15 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>SUM(B11:P11)</f>
+        <f t="shared" si="0"/>
         <v>6912</v>
       </c>
       <c r="R11" s="2">
-        <f>Q11/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>3.4207170143554311E-3</v>
       </c>
       <c r="S11">
-        <f>_xlfn.RANK.AVG(R11,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -23968,15 +24116,15 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUM(B12:P12)</f>
+        <f t="shared" si="0"/>
         <v>3108</v>
       </c>
       <c r="R12" s="2">
-        <f>Q12/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>1.5381349074966261E-3</v>
       </c>
       <c r="S12">
-        <f>_xlfn.RANK.AVG(R12,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -24030,15 +24178,15 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <f>SUM(B13:P13)</f>
+        <f t="shared" si="0"/>
         <v>2994</v>
       </c>
       <c r="R13" s="2">
-        <f>Q13/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>1.4817168317390278E-3</v>
       </c>
       <c r="S13">
-        <f>_xlfn.RANK.AVG(R13,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -24092,15 +24240,15 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>SUM(B14:P14)</f>
+        <f t="shared" si="0"/>
         <v>2967</v>
       </c>
       <c r="R14" s="2">
-        <f>Q14/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>1.4683546559017019E-3</v>
       </c>
       <c r="S14">
-        <f>_xlfn.RANK.AVG(R14,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -24154,15 +24302,15 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>SUM(B15:P15)</f>
+        <f t="shared" si="0"/>
         <v>2815</v>
       </c>
       <c r="R15" s="2">
-        <f>Q15/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>1.3931305548915709E-3</v>
       </c>
       <c r="S15">
-        <f>_xlfn.RANK.AVG(R15,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
@@ -24216,15 +24364,15 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>SUM(B16:P16)</f>
+        <f t="shared" si="0"/>
         <v>2035</v>
       </c>
       <c r="R16" s="2">
-        <f>Q16/$Q$17</f>
+        <f t="shared" si="1"/>
         <v>1.007112141813267E-3</v>
       </c>
       <c r="S16">
-        <f>_xlfn.RANK.AVG(R16,$R$2:$R$160)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -24243,7 +24391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24302,7 +24450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A7" s="10" t="s">
         <v>54</v>
       </c>
@@ -24310,7 +24458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A8" s="10" t="s">
         <v>55</v>
       </c>
@@ -24318,7 +24466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A9" s="10" t="s">
         <v>56</v>
       </c>
@@ -24326,7 +24474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A10" s="10" t="s">
         <v>57</v>
       </c>
@@ -24334,7 +24482,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A11" s="10" t="s">
         <v>58</v>
       </c>
@@ -24342,7 +24490,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A12" s="10" t="s">
         <v>59</v>
       </c>
@@ -24350,7 +24498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A13" s="10" t="s">
         <v>60</v>
       </c>
@@ -24358,7 +24506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A14" s="10" t="s">
         <v>61</v>
       </c>
@@ -24366,7 +24514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -24593,7 +24741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -25037,7 +25185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25108,25 +25256,25 @@
       <c r="F2">
         <v>26929</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="45">
         <v>320069</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="30">
+      <c r="M2" s="22"/>
+      <c r="N2" s="45">
         <v>62130</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="43">
+      <c r="O2" s="22"/>
+      <c r="P2" s="54">
         <v>42233</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="30">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="45">
         <v>32635</v>
       </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="39">
+      <c r="U2" s="22"/>
+      <c r="V2" s="26">
         <v>26929</v>
       </c>
     </row>
@@ -25149,17 +25297,17 @@
       <c r="F3">
         <v>15933</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="24"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="23"/>
     </row>
     <row r="4" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A4" t="s">
@@ -25177,21 +25325,21 @@
       <c r="E4">
         <v>5037</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="41" t="s">
+      <c r="L4" s="46"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="23">
         <v>26080</v>
       </c>
-      <c r="S4" s="22"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="29"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="25"/>
     </row>
     <row r="5" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A5" t="s">
@@ -25209,122 +25357,122 @@
       <c r="E5">
         <v>8968</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="41" t="s">
+      <c r="L5" s="46"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="23">
         <v>36050</v>
       </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="24"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="23"/>
     </row>
     <row r="6" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" t="s">
         <v>229</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="29"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="25"/>
     </row>
     <row r="7" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="L7" s="31"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="24"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="23"/>
     </row>
     <row r="8" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="29"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="25"/>
     </row>
     <row r="9" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="L9" s="31"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="24"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="23"/>
     </row>
     <row r="10" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="L10" s="31"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="50">
+      <c r="L10" s="46"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="57">
         <v>257939</v>
       </c>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="29"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="25"/>
     </row>
     <row r="11" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A11" t="s">
         <v>212</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="24"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="23"/>
     </row>
     <row r="12" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A12" t="s">
@@ -25348,21 +25496,21 @@
       <c r="G12" t="s">
         <v>225</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="42" t="s">
+      <c r="L12" s="46"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="23">
         <v>36050</v>
       </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="29"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="25"/>
     </row>
     <row r="13" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A13" t="s">
@@ -25386,21 +25534,21 @@
       <c r="G13" t="s">
         <v>226</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="42" t="s">
+      <c r="L13" s="46"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="23">
         <v>241786</v>
       </c>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="24"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="23"/>
     </row>
     <row r="14" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A14" t="s">
@@ -25424,17 +25572,17 @@
       <c r="G14" t="s">
         <v>225</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="29"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="25"/>
     </row>
     <row r="15" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A15" t="s">
@@ -25458,17 +25606,17 @@
       <c r="G15" t="s">
         <v>227</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="24"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="23"/>
     </row>
     <row r="16" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A16" t="s">
@@ -25492,17 +25640,17 @@
       <c r="G16" t="s">
         <v>225</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="29"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="25"/>
     </row>
     <row r="17" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B17" t="s">
@@ -25523,17 +25671,17 @@
       <c r="G17" t="s">
         <v>226</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="24"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="23"/>
     </row>
     <row r="18" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B18" t="s">
@@ -25554,23 +25702,23 @@
       <c r="G18" t="s">
         <v>225</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="33">
+      <c r="L18" s="46"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="51">
         <v>257939</v>
       </c>
-      <c r="O18" s="22"/>
-      <c r="P18" s="43">
+      <c r="O18" s="21"/>
+      <c r="P18" s="54">
         <v>16153</v>
       </c>
-      <c r="Q18" s="40" t="s">
+      <c r="Q18" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="29"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="25"/>
     </row>
     <row r="19" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B19" t="s">
@@ -25591,105 +25739,105 @@
       <c r="G19" t="s">
         <v>228</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="24"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="23"/>
     </row>
     <row r="20" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="41" t="s">
+      <c r="L20" s="46"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="R20" s="24">
-        <v>0</v>
-      </c>
-      <c r="S20" s="22"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="29"/>
+      <c r="R20" s="23">
+        <v>0</v>
+      </c>
+      <c r="S20" s="21"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="25"/>
     </row>
     <row r="21" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="41" t="s">
+      <c r="L21" s="46"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="23">
         <v>16153</v>
       </c>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="24"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="23"/>
     </row>
     <row r="22" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="29"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="25"/>
     </row>
     <row r="23" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="24"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="23"/>
     </row>
     <row r="24" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="29"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="25"/>
     </row>
     <row r="25" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B25" t="s">
@@ -25707,17 +25855,17 @@
       <c r="J25" t="s">
         <v>241</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="24"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="23"/>
     </row>
     <row r="26" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B26" t="s">
@@ -25738,19 +25886,19 @@
       <c r="J26" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="50">
+      <c r="L26" s="46"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="57">
         <v>241786</v>
       </c>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="29"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="25"/>
     </row>
     <row r="27" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="B27" t="s">
@@ -25771,17 +25919,17 @@
       <c r="J27" t="s">
         <v>243</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="24"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="23"/>
     </row>
     <row r="28" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="F28" t="s">
@@ -25799,21 +25947,21 @@
       <c r="J28" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="42" t="s">
+      <c r="L28" s="46"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="R28" s="24">
+      <c r="R28" s="23">
         <v>241786</v>
       </c>
-      <c r="S28" s="22"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="29"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="25"/>
     </row>
     <row r="29" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="F29" t="s">
@@ -25831,21 +25979,21 @@
       <c r="J29" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="42" t="s">
+      <c r="L29" s="46"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="R29" s="24">
-        <v>0</v>
-      </c>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="24"/>
+      <c r="R29" s="23">
+        <v>0</v>
+      </c>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="23"/>
     </row>
     <row r="30" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="F30" t="s">
@@ -25863,17 +26011,17 @@
       <c r="J30" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="29"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="25"/>
     </row>
     <row r="31" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A31" t="s">
@@ -25900,17 +26048,17 @@
       <c r="J31" t="s">
         <v>248</v>
       </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="24"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="23"/>
     </row>
     <row r="32" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A32" t="s">
@@ -25938,17 +26086,17 @@
       <c r="J32" t="s">
         <v>249</v>
       </c>
-      <c r="L32" s="32"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="29"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="25"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
@@ -26310,7 +26458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AE92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26441,7 +26589,7 @@
         <v>1696680</v>
       </c>
       <c r="C2" s="2">
-        <f>B2/$B$18</f>
+        <f t="shared" ref="C2:C17" si="0">B2/$B$18</f>
         <v>0.83805124486677063</v>
       </c>
       <c r="D2" t="s">
@@ -26463,77 +26611,77 @@
         <v>102</v>
       </c>
       <c r="J2" s="2">
-        <f>I2/$I$18</f>
+        <f t="shared" ref="J2:J17" si="1">I2/$I$18</f>
         <v>0.72340425531914898</v>
       </c>
       <c r="K2" s="13">
-        <f>_xlfn.RANK.AVG(J2,J$2:J$17)</f>
+        <f t="shared" ref="K2:K17" si="2">_xlfn.RANK.AVG(J2,J$2:J$17)</f>
         <v>1</v>
       </c>
       <c r="L2">
         <v>227808</v>
       </c>
       <c r="M2" s="1">
-        <f>L2/L$18</f>
+        <f t="shared" ref="M2:M17" si="3">L2/L$18</f>
         <v>0.71174652965454321</v>
       </c>
       <c r="N2" s="13">
-        <f>_xlfn.RANK.AVG(M2,M$2:M$17)</f>
+        <f t="shared" ref="N2:N17" si="4">_xlfn.RANK.AVG(M2,M$2:M$17)</f>
         <v>1</v>
       </c>
       <c r="O2">
         <v>246098</v>
       </c>
       <c r="P2" s="1">
-        <f>O2/O$18</f>
+        <f t="shared" ref="P2:P17" si="5">O2/O$18</f>
         <v>0.7674422230745962</v>
       </c>
       <c r="Q2" s="13">
-        <f>_xlfn.RANK.AVG(P2,P$2:P$17)</f>
+        <f t="shared" ref="Q2:Q18" si="6">_xlfn.RANK.AVG(P2,P$2:P$17)</f>
         <v>1</v>
       </c>
       <c r="R2">
         <v>289004</v>
       </c>
       <c r="S2" s="1">
-        <f>R2/R$18</f>
+        <f t="shared" ref="S2:S17" si="7">R2/R$18</f>
         <v>0.81378172367283608</v>
       </c>
       <c r="T2" s="13">
-        <f>_xlfn.RANK.AVG(S2,S$2:S$17)</f>
+        <f t="shared" ref="T2:T17" si="8">_xlfn.RANK.AVG(S2,S$2:S$17)</f>
         <v>1</v>
       </c>
       <c r="U2">
         <v>380722</v>
       </c>
       <c r="V2" s="1">
-        <f>U2/U$18</f>
+        <f t="shared" ref="V2:V17" si="9">U2/U$18</f>
         <v>0.85440688692498623</v>
       </c>
       <c r="W2" s="13">
-        <f>_xlfn.RANK.AVG(V2,V$2:V$17)</f>
+        <f t="shared" ref="W2:W17" si="10">_xlfn.RANK.AVG(V2,V$2:V$17)</f>
         <v>1</v>
       </c>
       <c r="X2">
         <v>405001</v>
       </c>
       <c r="Y2" s="1">
-        <f>X2/X$18</f>
+        <f t="shared" ref="Y2:Y17" si="11">X2/X$18</f>
         <v>0.93105604483770932</v>
       </c>
       <c r="Z2" s="13">
-        <f>_xlfn.RANK.AVG(Y2,Y$2:Y$17)</f>
+        <f t="shared" ref="Z2:Z17" si="12">_xlfn.RANK.AVG(Y2,Y$2:Y$17)</f>
         <v>1</v>
       </c>
       <c r="AA2">
         <v>147945</v>
       </c>
       <c r="AB2" s="1">
-        <f>AA2/AA$18</f>
+        <f t="shared" ref="AB2:AB17" si="13">AA2/AA$18</f>
         <v>1</v>
       </c>
       <c r="AC2" s="13">
-        <f>_xlfn.RANK.AVG(AB2,AB$2:AB$17)</f>
+        <f t="shared" ref="AC2:AC17" si="14">_xlfn.RANK.AVG(AB2,AB$2:AB$17)</f>
         <v>1</v>
       </c>
       <c r="AD2">
@@ -26553,7 +26701,7 @@
         <v>162004</v>
       </c>
       <c r="C3" s="2">
-        <f>B3/$B$18</f>
+        <f t="shared" si="0"/>
         <v>8.0019599378431006E-2</v>
       </c>
       <c r="D3" t="s">
@@ -26575,77 +26723,77 @@
         <v>18</v>
       </c>
       <c r="J3" s="2">
-        <f>I3/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0.1276595744680851</v>
       </c>
       <c r="K3" s="13">
-        <f>_xlfn.RANK.AVG(J3,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L3">
         <v>28817</v>
       </c>
       <c r="M3" s="1">
-        <f>L3/L$18</f>
+        <f t="shared" si="3"/>
         <v>9.0033711480961912E-2</v>
       </c>
       <c r="N3" s="13">
-        <f>_xlfn.RANK.AVG(M3,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O3">
         <v>27958</v>
       </c>
       <c r="P3" s="1">
-        <f>O3/O$18</f>
+        <f t="shared" si="5"/>
         <v>8.7185388230377983E-2</v>
       </c>
       <c r="Q3" s="13">
-        <f>_xlfn.RANK.AVG(P3,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R3">
         <v>29018</v>
       </c>
       <c r="S3" s="1">
-        <f>R3/R$18</f>
+        <f t="shared" si="7"/>
         <v>8.1709312180932997E-2</v>
       </c>
       <c r="T3" s="13">
-        <f>_xlfn.RANK.AVG(S3,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="U3">
         <v>46203</v>
       </c>
       <c r="V3" s="1">
-        <f>U3/U$18</f>
+        <f t="shared" si="9"/>
         <v>0.10368762875955458</v>
       </c>
       <c r="W3" s="13">
-        <f>_xlfn.RANK.AVG(V3,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="X3">
         <v>29990</v>
       </c>
       <c r="Y3" s="1">
-        <f>X3/X$18</f>
+        <f t="shared" si="11"/>
         <v>6.894395516229071E-2</v>
       </c>
       <c r="Z3" s="13">
-        <f>_xlfn.RANK.AVG(Y3,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <f>AA3/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC3" s="13">
-        <f>_xlfn.RANK.AVG(AB3,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD3">
@@ -26665,7 +26813,7 @@
         <v>44403</v>
       </c>
       <c r="C4" s="2">
-        <f>B4/$B$18</f>
+        <f t="shared" si="0"/>
         <v>2.1932237915116119E-2</v>
       </c>
       <c r="D4" t="s">
@@ -26687,77 +26835,77 @@
         <v>2</v>
       </c>
       <c r="J4" s="2">
-        <f>I4/$I$18</f>
+        <f t="shared" si="1"/>
         <v>1.4184397163120567E-2</v>
       </c>
       <c r="K4" s="13">
-        <f>_xlfn.RANK.AVG(J4,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L4">
         <v>10390</v>
       </c>
       <c r="M4" s="1">
-        <f>L4/L$18</f>
+        <f t="shared" si="3"/>
         <v>3.2461750435062442E-2</v>
       </c>
       <c r="N4" s="13">
-        <f>_xlfn.RANK.AVG(M4,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="O4">
         <v>11268</v>
       </c>
       <c r="P4" s="1">
-        <f>O4/O$18</f>
+        <f t="shared" si="5"/>
         <v>3.5138599133696942E-2</v>
       </c>
       <c r="Q4" s="13">
-        <f>_xlfn.RANK.AVG(P4,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="R4">
         <v>14405</v>
       </c>
       <c r="S4" s="1">
-        <f>R4/R$18</f>
+        <f t="shared" si="7"/>
         <v>4.056181135730718E-2</v>
       </c>
       <c r="T4" s="13">
-        <f>_xlfn.RANK.AVG(S4,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="U4">
         <v>8338</v>
       </c>
       <c r="V4" s="1">
-        <f>U4/U$18</f>
+        <f t="shared" si="9"/>
         <v>1.871193317743796E-2</v>
       </c>
       <c r="W4" s="13">
-        <f>_xlfn.RANK.AVG(V4,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <f>X4/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z4" s="13">
-        <f>_xlfn.RANK.AVG(Y4,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <f>AA4/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC4" s="13">
-        <f>_xlfn.RANK.AVG(AB4,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD4">
@@ -26777,7 +26925,7 @@
         <v>37639</v>
       </c>
       <c r="C5" s="2">
-        <f>B5/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.8591255160395819E-2</v>
       </c>
       <c r="D5" t="s">
@@ -26799,77 +26947,77 @@
         <v>5</v>
       </c>
       <c r="J5" s="2">
-        <f>I5/$I$18</f>
+        <f t="shared" si="1"/>
         <v>3.5460992907801421E-2</v>
       </c>
       <c r="K5" s="13">
-        <f>_xlfn.RANK.AVG(J5,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L5">
         <v>9423</v>
       </c>
       <c r="M5" s="1">
-        <f>L5/L$18</f>
+        <f t="shared" si="3"/>
         <v>2.9440526886390123E-2</v>
       </c>
       <c r="N5" s="13">
-        <f>_xlfn.RANK.AVG(M5,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="O5">
         <v>7150</v>
       </c>
       <c r="P5" s="1">
-        <f>O5/O$18</f>
+        <f t="shared" si="5"/>
         <v>2.2296856922784269E-2</v>
       </c>
       <c r="Q5" s="13">
-        <f>_xlfn.RANK.AVG(P5,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="R5">
         <v>10726</v>
       </c>
       <c r="S5" s="1">
-        <f>R5/R$18</f>
+        <f t="shared" si="7"/>
         <v>3.0202428921796379E-2</v>
       </c>
       <c r="T5" s="13">
-        <f>_xlfn.RANK.AVG(S5,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="U5">
         <v>10335</v>
       </c>
       <c r="V5" s="1">
-        <f>U5/U$18</f>
+        <f t="shared" si="9"/>
         <v>2.3193551138021264E-2</v>
       </c>
       <c r="W5" s="13">
-        <f>_xlfn.RANK.AVG(V5,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <f>X5/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z5" s="13">
-        <f>_xlfn.RANK.AVG(Y5,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <f>AA5/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC5" s="13">
-        <f>_xlfn.RANK.AVG(AB5,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD5">
@@ -26889,7 +27037,7 @@
         <v>17619</v>
       </c>
       <c r="C6" s="2">
-        <f>B6/$B$18</f>
+        <f t="shared" si="0"/>
         <v>8.7026574741893778E-3</v>
       </c>
       <c r="D6" t="s">
@@ -26911,77 +27059,77 @@
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <f>I6/$I$18</f>
+        <f t="shared" si="1"/>
         <v>2.8368794326241134E-2</v>
       </c>
       <c r="K6" s="13">
-        <f>_xlfn.RANK.AVG(J6,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="L6">
         <v>6773</v>
       </c>
       <c r="M6" s="1">
-        <f>L6/L$18</f>
+        <f t="shared" si="3"/>
         <v>2.1161062145974775E-2</v>
       </c>
       <c r="N6" s="13">
-        <f>_xlfn.RANK.AVG(M6,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O6">
         <v>7307</v>
       </c>
       <c r="P6" s="1">
-        <f>O6/O$18</f>
+        <f t="shared" si="5"/>
         <v>2.2786452242627226E-2</v>
       </c>
       <c r="Q6" s="13">
-        <f>_xlfn.RANK.AVG(P6,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="R6">
         <v>3535</v>
       </c>
       <c r="S6" s="1">
-        <f>R6/R$18</f>
+        <f t="shared" si="7"/>
         <v>9.9539051126748268E-3</v>
       </c>
       <c r="T6" s="13">
-        <f>_xlfn.RANK.AVG(S6,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <f>U6/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W6" s="13">
-        <f>_xlfn.RANK.AVG(V6,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <f>X6/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z6" s="13">
-        <f>_xlfn.RANK.AVG(Y6,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <f>AA6/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC6" s="13">
-        <f>_xlfn.RANK.AVG(AB6,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD6">
@@ -27001,7 +27149,7 @@
         <v>13781</v>
       </c>
       <c r="C7" s="2">
-        <f>B7/$B$18</f>
+        <f t="shared" si="0"/>
         <v>6.806931304376174E-3</v>
       </c>
       <c r="D7" t="s">
@@ -27023,77 +27171,77 @@
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <f>I7/$I$18</f>
+        <f t="shared" si="1"/>
         <v>7.0921985815602835E-3</v>
       </c>
       <c r="K7" s="13">
-        <f>_xlfn.RANK.AVG(J7,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
       <c r="L7">
         <v>4442</v>
       </c>
       <c r="M7" s="1">
-        <f>L7/L$18</f>
+        <f t="shared" si="3"/>
         <v>1.3878257500726406E-2</v>
       </c>
       <c r="N7" s="13">
-        <f>_xlfn.RANK.AVG(M7,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O7">
         <v>4741</v>
       </c>
       <c r="P7" s="1">
-        <f>O7/O$18</f>
+        <f t="shared" si="5"/>
         <v>1.4784531282646184E-2</v>
       </c>
       <c r="Q7" s="13">
-        <f>_xlfn.RANK.AVG(P7,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="R7">
         <v>4597</v>
       </c>
       <c r="S7" s="1">
-        <f>R7/R$18</f>
+        <f t="shared" si="7"/>
         <v>1.294430036859015E-2</v>
       </c>
       <c r="T7" s="13">
-        <f>_xlfn.RANK.AVG(S7,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <f>U7/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W7" s="13">
-        <f>_xlfn.RANK.AVG(V7,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <f>X7/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z7" s="13">
-        <f>_xlfn.RANK.AVG(Y7,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <f>AA7/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC7" s="13">
-        <f>_xlfn.RANK.AVG(AB7,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD7">
@@ -27113,7 +27261,7 @@
         <v>13102</v>
       </c>
       <c r="C8" s="2">
-        <f>B8/$B$18</f>
+        <f t="shared" si="0"/>
         <v>6.4715487954384024E-3</v>
       </c>
       <c r="D8" t="s">
@@ -27135,77 +27283,77 @@
         <v>4</v>
       </c>
       <c r="J8" s="2">
-        <f>I8/$I$18</f>
+        <f t="shared" si="1"/>
         <v>2.8368794326241134E-2</v>
       </c>
       <c r="K8" s="13">
-        <f>_xlfn.RANK.AVG(J8,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="L8">
         <v>9878</v>
       </c>
       <c r="M8" s="1">
-        <f>L8/L$18</f>
+        <f t="shared" si="3"/>
         <v>3.086209536068785E-2</v>
       </c>
       <c r="N8" s="13">
-        <f>_xlfn.RANK.AVG(M8,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O8">
         <v>3220</v>
       </c>
       <c r="P8" s="1">
-        <f>O8/O$18</f>
+        <f t="shared" si="5"/>
         <v>1.0041381719072076E-2</v>
       </c>
       <c r="Q8" s="13">
-        <f>_xlfn.RANK.AVG(P8,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <f>R8/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T8" s="13">
-        <f>_xlfn.RANK.AVG(S8,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <f>U8/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W8" s="13">
-        <f>_xlfn.RANK.AVG(V8,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <f>X8/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z8" s="13">
-        <f>_xlfn.RANK.AVG(Y8,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <f>AA8/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC8" s="13">
-        <f>_xlfn.RANK.AVG(AB8,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD8">
@@ -27225,7 +27373,7 @@
         <v>8134</v>
       </c>
       <c r="C9" s="2">
-        <f>B9/$B$18</f>
+        <f t="shared" si="0"/>
         <v>4.017675003976184E-3</v>
       </c>
       <c r="D9" t="s">
@@ -27247,77 +27395,77 @@
         <v>2</v>
       </c>
       <c r="J9" s="2">
-        <f>I9/$I$18</f>
+        <f t="shared" si="1"/>
         <v>1.4184397163120567E-2</v>
       </c>
       <c r="K9" s="13">
-        <f>_xlfn.RANK.AVG(J9,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L9">
         <v>3075</v>
       </c>
       <c r="M9" s="1">
-        <f>L9/L$18</f>
+        <f t="shared" si="3"/>
         <v>9.6073034251989414E-3</v>
       </c>
       <c r="N9" s="13">
-        <f>_xlfn.RANK.AVG(M9,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="O9">
         <v>3320</v>
       </c>
       <c r="P9" s="1">
-        <f>O9/O$18</f>
+        <f t="shared" si="5"/>
         <v>1.035322587183829E-2</v>
       </c>
       <c r="Q9" s="13">
-        <f>_xlfn.RANK.AVG(P9,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="R9">
         <v>1737</v>
       </c>
       <c r="S9" s="1">
-        <f>R9/R$18</f>
+        <f t="shared" si="7"/>
         <v>4.8910702067089598E-3</v>
       </c>
       <c r="T9" s="13">
-        <f>_xlfn.RANK.AVG(S9,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <f>U9/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W9" s="13">
-        <f>_xlfn.RANK.AVG(V9,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <f>X9/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z9" s="13">
-        <f>_xlfn.RANK.AVG(Y9,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <f>AA9/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC9" s="13">
-        <f>_xlfn.RANK.AVG(AB9,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD9">
@@ -27337,7 +27485,7 @@
         <v>7626</v>
       </c>
       <c r="C10" s="2">
-        <f>B10/$B$18</f>
+        <f t="shared" si="0"/>
         <v>3.7667555422083087E-3</v>
       </c>
       <c r="D10" t="s">
@@ -27359,77 +27507,77 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <f>I10/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="13">
-        <f>_xlfn.RANK.AVG(J10,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L10">
         <v>2412</v>
       </c>
       <c r="M10" s="1">
-        <f>L10/L$18</f>
+        <f t="shared" si="3"/>
         <v>7.5358750769365353E-3</v>
       </c>
       <c r="N10" s="13">
-        <f>_xlfn.RANK.AVG(M10,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="O10">
         <v>3099</v>
       </c>
       <c r="P10" s="1">
-        <f>O10/O$18</f>
+        <f t="shared" si="5"/>
         <v>9.6640502942249573E-3</v>
       </c>
       <c r="Q10" s="13">
-        <f>_xlfn.RANK.AVG(P10,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="R10">
         <v>2115</v>
       </c>
       <c r="S10" s="1">
-        <f>R10/R$18</f>
+        <f t="shared" si="7"/>
         <v>5.9554481791533973E-3</v>
       </c>
       <c r="T10" s="13">
-        <f>_xlfn.RANK.AVG(S10,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <f>U10/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W10" s="13">
-        <f>_xlfn.RANK.AVG(V10,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <f>X10/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z10" s="13">
-        <f>_xlfn.RANK.AVG(Y10,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <f>AA10/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC10" s="13">
-        <f>_xlfn.RANK.AVG(AB10,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD10">
@@ -27449,7 +27597,7 @@
         <v>6912</v>
       </c>
       <c r="C11" s="2">
-        <f>B11/$B$18</f>
+        <f t="shared" si="0"/>
         <v>3.4140852750778692E-3</v>
       </c>
       <c r="D11" t="s">
@@ -27471,77 +27619,77 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <f>I11/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="13">
-        <f>_xlfn.RANK.AVG(J11,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L11">
         <v>5010</v>
       </c>
       <c r="M11" s="1">
-        <f>L11/L$18</f>
+        <f t="shared" si="3"/>
         <v>1.5652874848860715E-2</v>
       </c>
       <c r="N11" s="13">
-        <f>_xlfn.RANK.AVG(M11,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="O11">
         <v>1902</v>
       </c>
       <c r="P11" s="1">
-        <f>O11/O$18</f>
+        <f t="shared" si="5"/>
         <v>5.9312757856133822E-3</v>
       </c>
       <c r="Q11" s="13">
-        <f>_xlfn.RANK.AVG(P11,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <f>R11/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T11" s="13">
-        <f>_xlfn.RANK.AVG(S11,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <f>U11/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W11" s="13">
-        <f>_xlfn.RANK.AVG(V11,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <f>X11/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z11" s="13">
-        <f>_xlfn.RANK.AVG(Y11,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <f>AA11/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC11" s="13">
-        <f>_xlfn.RANK.AVG(AB11,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD11">
@@ -27561,7 +27709,7 @@
         <v>3108</v>
       </c>
       <c r="C12" s="2">
-        <f>B12/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.5351529275089723E-3</v>
       </c>
       <c r="D12" t="s">
@@ -27583,77 +27731,77 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <f>I12/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="13">
-        <f>_xlfn.RANK.AVG(J12,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L12">
         <v>2195</v>
       </c>
       <c r="M12" s="1">
-        <f>L12/L$18</f>
+        <f t="shared" si="3"/>
         <v>6.857896266117618E-3</v>
       </c>
       <c r="N12" s="13">
-        <f>_xlfn.RANK.AVG(M12,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="O12">
         <v>913</v>
       </c>
       <c r="P12" s="1">
-        <f>O12/O$18</f>
+        <f t="shared" si="5"/>
         <v>2.8471371147555297E-3</v>
       </c>
       <c r="Q12" s="13">
-        <f>_xlfn.RANK.AVG(P12,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <f>R12/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T12" s="13">
-        <f>_xlfn.RANK.AVG(S12,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <f>U12/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W12" s="13">
-        <f>_xlfn.RANK.AVG(V12,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <f>X12/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z12" s="13">
-        <f>_xlfn.RANK.AVG(Y12,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <f>AA12/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC12" s="13">
-        <f>_xlfn.RANK.AVG(AB12,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD12">
@@ -27673,7 +27821,7 @@
         <v>2994</v>
       </c>
       <c r="C13" s="2">
-        <f>B13/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.4788442293957088E-3</v>
       </c>
       <c r="D13" t="s">
@@ -27695,77 +27843,77 @@
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <f>I13/$I$18</f>
+        <f t="shared" si="1"/>
         <v>7.0921985815602835E-3</v>
       </c>
       <c r="K13" s="13">
-        <f>_xlfn.RANK.AVG(J13,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
       <c r="L13">
         <v>2196</v>
       </c>
       <c r="M13" s="1">
-        <f>L13/L$18</f>
+        <f t="shared" si="3"/>
         <v>6.8610205924347564E-3</v>
       </c>
       <c r="N13" s="13">
-        <f>_xlfn.RANK.AVG(M13,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="O13">
         <v>797</v>
       </c>
       <c r="P13" s="1">
-        <f>O13/O$18</f>
+        <f t="shared" si="5"/>
         <v>2.4853978975467221E-3</v>
       </c>
       <c r="Q13" s="13">
-        <f>_xlfn.RANK.AVG(P13,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <f>R13/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T13" s="13">
-        <f>_xlfn.RANK.AVG(S13,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <f>U13/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W13" s="13">
-        <f>_xlfn.RANK.AVG(V13,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <f>X13/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z13" s="13">
-        <f>_xlfn.RANK.AVG(Y13,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <f>AA13/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC13" s="13">
-        <f>_xlfn.RANK.AVG(AB13,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD13">
@@ -27785,7 +27933,7 @@
         <v>2967</v>
       </c>
       <c r="C14" s="2">
-        <f>B14/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.4655079587899359E-3</v>
       </c>
       <c r="D14" t="s">
@@ -27807,77 +27955,77 @@
         <v>2</v>
       </c>
       <c r="J14" s="2">
-        <f>I14/$I$18</f>
+        <f t="shared" si="1"/>
         <v>1.4184397163120567E-2</v>
       </c>
       <c r="K14" s="13">
-        <f>_xlfn.RANK.AVG(J14,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L14">
         <v>2337</v>
       </c>
       <c r="M14" s="1">
-        <f>L14/L$18</f>
+        <f t="shared" si="3"/>
         <v>7.3015506031511952E-3</v>
       </c>
       <c r="N14" s="13">
-        <f>_xlfn.RANK.AVG(M14,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="O14">
         <v>628</v>
       </c>
       <c r="P14" s="1">
-        <f>O14/O$18</f>
+        <f t="shared" si="5"/>
         <v>1.9583812793718212E-3</v>
       </c>
       <c r="Q14" s="13">
-        <f>_xlfn.RANK.AVG(P14,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <f>R14/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T14" s="13">
-        <f>_xlfn.RANK.AVG(S14,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <f>U14/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W14" s="13">
-        <f>_xlfn.RANK.AVG(V14,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <f>X14/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z14" s="13">
-        <f>_xlfn.RANK.AVG(Y14,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <f>AA14/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC14" s="13">
-        <f>_xlfn.RANK.AVG(AB14,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD14">
@@ -27897,7 +28045,7 @@
         <v>2815</v>
       </c>
       <c r="C15" s="2">
-        <f>B15/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.3904296946389181E-3</v>
       </c>
       <c r="D15" t="s">
@@ -27919,77 +28067,77 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f>I15/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="13">
-        <f>_xlfn.RANK.AVG(J15,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L15">
         <v>1962</v>
       </c>
       <c r="M15" s="1">
-        <f>L15/L$18</f>
+        <f t="shared" si="3"/>
         <v>6.1299282342244955E-3</v>
       </c>
       <c r="N15" s="13">
-        <f>_xlfn.RANK.AVG(M15,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="O15">
         <v>853</v>
       </c>
       <c r="P15" s="1">
-        <f>O15/O$18</f>
+        <f t="shared" si="5"/>
         <v>2.6600306230958018E-3</v>
       </c>
       <c r="Q15" s="13">
-        <f>_xlfn.RANK.AVG(P15,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <f>R15/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T15" s="13">
-        <f>_xlfn.RANK.AVG(S15,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <f>U15/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W15" s="13">
-        <f>_xlfn.RANK.AVG(V15,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <f>X15/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z15" s="13">
-        <f>_xlfn.RANK.AVG(Y15,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <f>AA15/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC15" s="13">
-        <f>_xlfn.RANK.AVG(AB15,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD15">
@@ -28009,7 +28157,7 @@
         <v>2735</v>
       </c>
       <c r="C16" s="2">
-        <f>B16/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.3509148187699613E-3</v>
       </c>
       <c r="D16" t="s">
@@ -28031,77 +28179,77 @@
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <f>I16/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="13">
-        <f>_xlfn.RANK.AVG(J16,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L16">
         <v>1898</v>
       </c>
       <c r="M16" s="1">
-        <f>L16/L$18</f>
+        <f t="shared" si="3"/>
         <v>5.9299713499276719E-3</v>
       </c>
       <c r="N16" s="13">
-        <f>_xlfn.RANK.AVG(M16,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="O16">
         <v>837</v>
       </c>
       <c r="P16" s="1">
-        <f>O16/O$18</f>
+        <f t="shared" si="5"/>
         <v>2.6101355586532074E-3</v>
       </c>
       <c r="Q16" s="13">
-        <f>_xlfn.RANK.AVG(P16,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <f>R16/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T16" s="13">
-        <f>_xlfn.RANK.AVG(S16,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <f>U16/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W16" s="13">
-        <f>_xlfn.RANK.AVG(V16,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <f>X16/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z16" s="13">
-        <f>_xlfn.RANK.AVG(Y16,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16" s="1">
-        <f>AA16/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC16" s="13">
-        <f>_xlfn.RANK.AVG(AB16,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD16">
@@ -28121,7 +28269,7 @@
         <v>2035</v>
       </c>
       <c r="C17" s="2">
-        <f>B17/$B$18</f>
+        <f t="shared" si="0"/>
         <v>1.0051596549165891E-3</v>
       </c>
       <c r="D17" t="s">
@@ -28143,77 +28291,77 @@
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <f>I17/$I$18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <f>_xlfn.RANK.AVG(J17,J$2:J$17)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="L17">
         <v>1453</v>
       </c>
       <c r="M17" s="1">
-        <f>L17/L$18</f>
+        <f t="shared" si="3"/>
         <v>4.5396461388013207E-3</v>
       </c>
       <c r="N17" s="13">
-        <f>_xlfn.RANK.AVG(M17,M$2:M$17)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="O17">
         <v>582</v>
       </c>
       <c r="P17" s="1">
-        <f>O17/O$18</f>
+        <f t="shared" si="5"/>
         <v>1.8149329690993628E-3</v>
       </c>
       <c r="Q17" s="13">
-        <f>_xlfn.RANK.AVG(P17,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <f>R17/R$18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T17" s="13">
-        <f>_xlfn.RANK.AVG(S17,S$2:S$17)</f>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <f>U17/U$18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W17" s="13">
-        <f>_xlfn.RANK.AVG(V17,V$2:V$17)</f>
+        <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <f>X17/X$18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z17" s="13">
-        <f>_xlfn.RANK.AVG(Y17,Y$2:Y$17)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <f>AA17/AA$18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC17" s="13">
-        <f>_xlfn.RANK.AVG(AB17,AB$2:AB$17)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AD17">
@@ -28251,7 +28399,7 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="Q18" s="13" t="e">
-        <f>_xlfn.RANK.AVG(P18,P$2:P$17)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="R18">
@@ -28441,7 +28589,7 @@
         <v>109</v>
       </c>
       <c r="I30">
-        <f>COUNTIF(D30:H30,"give")</f>
+        <f t="shared" ref="I30:I45" si="15">COUNTIF(D30:H30,"give")</f>
         <v>1</v>
       </c>
       <c r="J30" s="16" t="s">
@@ -28471,7 +28619,7 @@
         <v>109</v>
       </c>
       <c r="I31">
-        <f>COUNTIF(D31:H31,"give")</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J31" s="16" t="s">
@@ -28501,7 +28649,7 @@
         <v>109</v>
       </c>
       <c r="I32">
-        <f>COUNTIF(D32:H32,"give")</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J32" s="16" t="s">
@@ -28531,7 +28679,7 @@
         <v>109</v>
       </c>
       <c r="I33">
-        <f>COUNTIF(D33:H33,"give")</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J33" s="16" t="s">
@@ -28561,7 +28709,7 @@
         <v>108</v>
       </c>
       <c r="I34">
-        <f>COUNTIF(D34:H34,"give")</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J34" s="16" t="s">
@@ -28591,7 +28739,7 @@
         <v>109</v>
       </c>
       <c r="I35">
-        <f>COUNTIF(D35:H35,"give")</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J35" s="16" t="s">
@@ -28621,7 +28769,7 @@
         <v>109</v>
       </c>
       <c r="I36">
-        <f>COUNTIF(D36:H36,"give")</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J36" s="16" t="s">
@@ -28651,7 +28799,7 @@
         <v>108</v>
       </c>
       <c r="I37">
-        <f>COUNTIF(D37:H37,"give")</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J37" s="16" t="s">
@@ -28681,7 +28829,7 @@
         <v>109</v>
       </c>
       <c r="I38">
-        <f>COUNTIF(D38:H38,"give")</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J38" s="16" t="s">
@@ -28711,7 +28859,7 @@
         <v>108</v>
       </c>
       <c r="I39">
-        <f>COUNTIF(D39:H39,"give")</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J39" s="16" t="s">
@@ -28741,7 +28889,7 @@
         <v>108</v>
       </c>
       <c r="I40">
-        <f>COUNTIF(D40:H40,"give")</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J40" s="16" t="s">
@@ -28771,7 +28919,7 @@
         <v>109</v>
       </c>
       <c r="I41">
-        <f>COUNTIF(D41:H41,"give")</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="J41" s="16" t="s">
@@ -28801,7 +28949,7 @@
         <v>108</v>
       </c>
       <c r="I42">
-        <f>COUNTIF(D42:H42,"give")</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="J42" s="16" t="s">
@@ -28831,7 +28979,7 @@
         <v>108</v>
       </c>
       <c r="I43">
-        <f>COUNTIF(D43:H43,"give")</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="J43" s="16" t="s">
@@ -28861,7 +29009,7 @@
         <v>108</v>
       </c>
       <c r="I44">
-        <f>COUNTIF(D44:H44,"give")</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="J44" s="16" t="s">
@@ -28891,7 +29039,7 @@
         <v>108</v>
       </c>
       <c r="I45">
-        <f>COUNTIF(D45:H45,"give")</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="J45" s="16" t="s">
@@ -29359,7 +29507,7 @@
         <v>167</v>
       </c>
       <c r="J73">
-        <f t="shared" ref="J73:J76" si="0">SUM(L73:AA73)</f>
+        <f t="shared" ref="J73:J76" si="16">SUM(L73:AA73)</f>
         <v>243436</v>
       </c>
       <c r="K73" t="s">
@@ -29390,7 +29538,7 @@
         <v>2815</v>
       </c>
       <c r="AC73">
-        <f t="shared" ref="AC73:AC76" si="1">COUNTIF(L73:AA73,"&lt;&gt;")</f>
+        <f t="shared" ref="AC73:AC76" si="17">COUNTIF(L73:AA73,"&lt;&gt;")</f>
         <v>8</v>
       </c>
     </row>
@@ -29420,7 +29568,7 @@
         <v>168</v>
       </c>
       <c r="J74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>124288</v>
       </c>
       <c r="K74" s="15" t="s">
@@ -29431,35 +29579,35 @@
         <v>44403</v>
       </c>
       <c r="O74">
-        <f t="shared" ref="O74:AA74" si="2">O72</f>
+        <f t="shared" ref="O74:AA74" si="18">O72</f>
         <v>37639</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>13781</v>
       </c>
       <c r="R74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>13102</v>
       </c>
       <c r="T74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>7626</v>
       </c>
       <c r="X74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2967</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2735</v>
       </c>
       <c r="AA74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="18"/>
         <v>2035</v>
       </c>
       <c r="AC74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
     </row>
@@ -29489,7 +29637,7 @@
         <v>169</v>
       </c>
       <c r="J75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>68920</v>
       </c>
       <c r="K75" t="s">
@@ -29500,35 +29648,35 @@
         <v>17619</v>
       </c>
       <c r="Q75">
-        <f t="shared" ref="Q75:AA75" si="3">Q72</f>
+        <f t="shared" ref="Q75:Z75" si="19">Q72</f>
         <v>13781</v>
       </c>
       <c r="R75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>13102</v>
       </c>
       <c r="S75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>8134</v>
       </c>
       <c r="T75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>7626</v>
       </c>
       <c r="V75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>3108</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>2815</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>2735</v>
       </c>
       <c r="AC75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
     </row>
@@ -29558,7 +29706,7 @@
         <v>170</v>
       </c>
       <c r="J76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>36668</v>
       </c>
       <c r="K76" s="15" t="s">
@@ -29569,35 +29717,35 @@
         <v>13102</v>
       </c>
       <c r="U76">
-        <f t="shared" ref="S76:AA76" si="4">U72</f>
+        <f t="shared" ref="U76:AA76" si="20">U72</f>
         <v>6912</v>
       </c>
       <c r="V76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>3108</v>
       </c>
       <c r="W76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>2994</v>
       </c>
       <c r="X76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>2967</v>
       </c>
       <c r="Y76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>2815</v>
       </c>
       <c r="Z76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>2735</v>
       </c>
       <c r="AA76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>2035</v>
       </c>
       <c r="AC76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
     </row>
@@ -29913,7 +30061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29937,7 +30085,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A2" s="56"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
@@ -30000,17 +30148,17 @@
       </c>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="37" t="s">
         <v>182</v>
       </c>
       <c r="B3" s="16"/>
@@ -30029,201 +30177,201 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="57">
+      <c r="R3" s="38">
         <f>SUM(B3:Q3)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="58" t="s">
+      <c r="S3" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="T3" s="56" t="s">
+      <c r="T3" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56">
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37">
         <f>COUNTIF(B3:Q3,"&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="38">
         <f t="shared" ref="R4:R7" si="0">SUM(B4:Q4)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="58">
+      <c r="S4" s="39">
         <f>$R$3-R4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="56">
+      <c r="T4" s="37">
         <f>R4</f>
         <v>0</v>
       </c>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56">
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37">
         <f>COUNTIF(B4:Q4,"&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A5" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S5" s="58">
+      <c r="S5" s="39">
         <f t="shared" ref="S5:S7" si="1">$R$3-R5</f>
         <v>0</v>
       </c>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56">
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37">
         <f>COUNTIF(B5:Q5,"&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="57">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="58">
+      <c r="S6" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56">
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37">
         <f>COUNTIF(B6:Q6,"&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A7" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="57">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="58">
+      <c r="S7" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56">
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37">
         <f>COUNTIF(B7:Q7,"&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.75">
       <c r="P9">
@@ -31038,203 +31186,203 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="41" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="41" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="41" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="41" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="41" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="41" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="41" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="41" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="41" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41" t="s">
         <v>259</v>
       </c>
     </row>
@@ -31245,93 +31393,1053 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F9D859-D1CF-4B3C-9C69-A1F06CBC5639}">
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.76953125" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="16384" width="6.76953125" style="59"/>
+    <col min="1" max="1" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="K1" s="59" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="59">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O1" t="s">
+        <v>336</v>
+      </c>
+      <c r="P1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>338</v>
+      </c>
+      <c r="R1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>110874596</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <f>B2/$B$19</f>
+        <v>0.68765022033509715</v>
+      </c>
+      <c r="I2" s="2">
+        <f>C2/C$19</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:L17" si="0">D2/D$19</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="13">
+        <f>_xlfn.RANK.AVG(B2,B$2:B$17)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="M3" s="59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="59">
+      <c r="O2" s="13">
+        <f t="shared" ref="O2:R17" si="1">_xlfn.RANK.AVG(C2,C$2:C$17)</f>
+        <v>12.5</v>
+      </c>
+      <c r="P2" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q2" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="R2" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>21879719</v>
+      </c>
+      <c r="C3">
+        <v>19299094</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H17" si="2">B3/$B$19</f>
+        <v>0.13569919651585483</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I17" si="3">C3/C$19</f>
+        <v>0.41664868120723686</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <f t="shared" ref="N3:N17" si="4">_xlfn.RANK.AVG(B3,B$2:B$17)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="O5" s="59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="59">
+      <c r="O3" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q3" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="R3" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>7418513</v>
+      </c>
+      <c r="C4">
+        <v>9849242</v>
+      </c>
+      <c r="D4">
+        <v>6313826</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6010017470627648E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21263556155490657</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2150873892396315</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E7" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q7" s="59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="59">
+      <c r="O4" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P4" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="R4" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>3613375</v>
+      </c>
+      <c r="C5">
+        <v>5197408</v>
+      </c>
+      <c r="D5">
+        <v>6060847</v>
+      </c>
+      <c r="E5">
+        <v>3448636</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2410346504471875E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1122069869650846</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20646938287669836</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17643235062061732</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O5" s="13">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="S9" s="59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A10" s="59">
+      <c r="P5" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q5" s="13">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G10" s="59" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="59">
+      <c r="R5" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>6222206</v>
+      </c>
+      <c r="C6">
+        <v>9289442</v>
+      </c>
+      <c r="D6">
+        <v>10084864</v>
+      </c>
+      <c r="E6">
+        <v>10474486</v>
+      </c>
+      <c r="F6">
+        <v>9280485</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8590456977812694E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20055002366697197</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.34355192376171706</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53587510729539078</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71221813118970967</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O6" s="13">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I12" s="59" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="I16" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="M16" s="59" t="s">
-        <v>273</v>
+      <c r="P6" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>563346</v>
+      </c>
+      <c r="C7">
+        <v>657005</v>
+      </c>
+      <c r="D7">
+        <v>628100</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>578428</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>3.4939022553452698E-3</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4184099357024773E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1396913564202202E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4390665917546486E-2</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P7" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="R7" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>1086406</v>
+      </c>
+      <c r="C8">
+        <v>1119505</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>957903</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>6.7379485673469469E-3</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>2.4169024818206892E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9006354383745107E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R8" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>471066</v>
+      </c>
+      <c r="C9">
+        <v>505484</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>641579</v>
+      </c>
+      <c r="F9">
+        <v>605238</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9215767216177533E-3</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0912908241773366E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2823206357187315E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6448162707552192E-2</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>376639</v>
+      </c>
+      <c r="C10">
+        <v>402645</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>360482</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3359353781707637E-3</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>8.6927141887949699E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7664698166909266E-2</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="R10" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>4895268</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>4240138</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>3.0360715982219681E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14444493915982998</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="P11" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="R11" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>844498</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1193925</v>
+      </c>
+      <c r="E12">
+        <v>1025751</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2376221129369332E-3</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0672361132208429E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2477460677626986E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O12" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R12" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13">
+        <v>393945</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>589396</v>
+      </c>
+      <c r="E13">
+        <v>799426</v>
+      </c>
+      <c r="F13">
+        <v>693342</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4432681229333169E-3</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0078419466783192E-2</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0898664958330659E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3209583714141633E-2</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R13" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>212140</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>243605</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>244951</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3157037139678732E-3</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2986707989292762E-3</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8798429548999927E-2</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="P14" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="R14" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>1498990</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1640433</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>9.296816772889141E-3</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3924615478592438E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R15" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>330267</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>558292</v>
+      </c>
+      <c r="F16">
+        <v>576657</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0483337348026188E-3</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8562240228509381E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4254752944211904E-2</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="P16" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q16" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R16" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>555935</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>690814</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>3.4479388339055794E-3</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3015575810928861E-2</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="Q17" s="13">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="R17" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="B19">
+        <f>SUM(B2:B17)</f>
+        <v>161236909</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:F19" si="5">SUM(C2:C17)</f>
+        <v>46319825</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>29354701</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>19546506</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>13030397</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/notebooks/cgp.xlsx
+++ b/notebooks/cgp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erinm\Documents\donations\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353DEEBD-EDFE-4C0C-A7C7-4FBD022DD7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BC50F1-D15F-423D-BC10-5D40663045CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="likely_giving_patterns (2)" sheetId="8" r:id="rId1"/>
@@ -1939,46 +1939,6 @@
   <dxfs count="37">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2258,6 +2218,26 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2559,6 +2539,26 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11577,8 +11577,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2182927" y="1672404"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="2384259" y="1632488"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11646,8 +11646,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2188601" y="1678078"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="2389798" y="1638027"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A4178F77-A6AA-4864-8E49-1D0B1E68AA14}">
@@ -11657,8 +11657,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="16791948">
-          <a:off x="2195612" y="1318763"/>
-          <a:ext cx="904533" cy="9854"/>
+          <a:off x="2396641" y="1287170"/>
+          <a:ext cx="882944" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11672,7 +11672,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="904533" y="4927"/>
+                <a:pt x="882944" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11727,8 +11727,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2625265" y="1301077"/>
-        <a:ext cx="45226" cy="45226"/>
+        <a:off x="2816040" y="1270024"/>
+        <a:ext cx="44147" cy="44147"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E1BA0279-2674-460D-902E-DAB3ED9388AD}">
@@ -11738,8 +11738,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2725370" y="781247"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="2913756" y="762600"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11807,8 +11807,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2731044" y="786921"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="2919295" y="768139"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{96B78391-FAFA-4A96-A5D4-7A3E1BB6831D}">
@@ -11818,8 +11818,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="17350740">
-          <a:off x="2954440" y="650395"/>
-          <a:ext cx="471762" cy="9854"/>
+          <a:off x="3137359" y="634754"/>
+          <a:ext cx="460503" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11833,7 +11833,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="471762" y="4927"/>
+                <a:pt x="460503" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11888,8 +11888,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3178528" y="643528"/>
-        <a:ext cx="23588" cy="23588"/>
+        <a:off x="3356098" y="628169"/>
+        <a:ext cx="23025" cy="23025"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7EC1FADF-1860-482A-B07E-9CCE64E8227F}">
@@ -11899,8 +11899,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3267814" y="335668"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="3443253" y="327657"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11968,8 +11968,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3273488" y="341342"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="3448792" y="333196"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DBC9C1F0-EDF3-4C44-87A0-B2AA61AECA45}">
@@ -11979,8 +11979,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="18289469">
-          <a:off x="3597068" y="316211"/>
-          <a:ext cx="271394" cy="9854"/>
+          <a:off x="3764648" y="308546"/>
+          <a:ext cx="264917" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11994,7 +11994,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271394" y="4927"/>
+                <a:pt x="264917" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12049,8 +12049,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3725980" y="314354"/>
-        <a:ext cx="13569" cy="13569"/>
+        <a:off x="3890484" y="306851"/>
+        <a:ext cx="13245" cy="13245"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{18E33782-A72A-45BB-8E3A-B1D5B552423A}">
@@ -12060,8 +12060,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3810257" y="112879"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="3972749" y="110185"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12129,8 +12129,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3815931" y="118553"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="3978288" y="115724"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DCE46968-04F5-47D2-9A13-3278AEC5529F}">
@@ -12140,8 +12140,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="19457599">
-          <a:off x="4179777" y="149119"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="145442"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12155,7 +12155,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12210,8 +12210,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="149275"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="145712"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5C8D7883-4DD7-4813-8A8D-A1744A7F0581}">
@@ -12221,8 +12221,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="1484"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="1449"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12290,8 +12290,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="7158"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="6988"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A8245C92-1E2A-48C5-8397-4ED77959C389}">
@@ -12301,8 +12301,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2142401">
-          <a:off x="4179777" y="260514"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="254178"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12316,7 +12316,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12371,8 +12371,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="260670"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="254448"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1B013F05-72A0-4A3A-A664-23A39A1C6F5F}">
@@ -12382,8 +12382,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="224274"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="218921"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12451,8 +12451,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="229948"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="224460"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3B436CC5-5222-4690-8A4E-81503A6E2ADD}">
@@ -12462,8 +12462,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="3310531">
-          <a:off x="3597068" y="539000"/>
-          <a:ext cx="271394" cy="9854"/>
+          <a:off x="3764648" y="526018"/>
+          <a:ext cx="264917" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12477,7 +12477,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271394" y="4927"/>
+                <a:pt x="264917" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12532,8 +12532,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3725980" y="537143"/>
-        <a:ext cx="13569" cy="13569"/>
+        <a:off x="3890484" y="524323"/>
+        <a:ext cx="13245" cy="13245"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E81E5311-87F9-4E76-AC12-7B269F8C4B6B}">
@@ -12543,8 +12543,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3810257" y="558457"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="3972749" y="545129"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12612,8 +12612,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3815931" y="564131"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="3978288" y="550668"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6B31008F-3FEF-4B65-B6E4-8053BB81A71D}">
@@ -12623,8 +12623,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="19457599">
-          <a:off x="4179777" y="594698"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="580386"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12638,7 +12638,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12693,8 +12693,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="594853"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="580656"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{716D1D89-DB34-4DAE-8EA2-3B13A7259791}">
@@ -12704,8 +12704,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="447063"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="436393"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12773,8 +12773,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="452737"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="441932"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{991D3B93-3FAB-4299-83C7-FFD3C2EC675F}">
@@ -12784,8 +12784,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2142401">
-          <a:off x="4179777" y="706092"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="689122"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12799,7 +12799,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12854,8 +12854,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="706248"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="689392"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{03ED42B4-6682-457A-9914-B5B8F498F2FC}">
@@ -12865,8 +12865,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="669852"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="653865"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12934,8 +12934,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="675526"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="659404"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{AFEDCADC-06E8-4533-8466-26511A88CDFA}">
@@ -12945,8 +12945,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="4249260">
-          <a:off x="2954440" y="1095973"/>
-          <a:ext cx="471762" cy="9854"/>
+          <a:off x="3137359" y="1069698"/>
+          <a:ext cx="460503" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12960,7 +12960,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="471762" y="4927"/>
+                <a:pt x="460503" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13015,8 +13015,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3178528" y="1089107"/>
-        <a:ext cx="23588" cy="23588"/>
+        <a:off x="3356098" y="1063113"/>
+        <a:ext cx="23025" cy="23025"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C3576342-74B5-4F1A-96CC-7731EF16D207}">
@@ -13026,8 +13026,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3267814" y="1226825"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="3443253" y="1197544"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13095,8 +13095,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3273488" y="1232499"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="3448792" y="1203083"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{27FB3AEF-337E-436F-A259-286E49C06554}">
@@ -13106,8 +13106,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="18289469">
-          <a:off x="3597068" y="1207368"/>
-          <a:ext cx="271394" cy="9854"/>
+          <a:off x="3764648" y="1178434"/>
+          <a:ext cx="264917" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13121,7 +13121,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271394" y="4927"/>
+                <a:pt x="264917" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13176,8 +13176,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3725980" y="1205511"/>
-        <a:ext cx="13569" cy="13569"/>
+        <a:off x="3890484" y="1176738"/>
+        <a:ext cx="13245" cy="13245"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BDF1F425-36CB-41A5-807D-003A508726C7}">
@@ -13187,8 +13187,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3810257" y="1004036"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="3972749" y="980072"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13256,8 +13256,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3815931" y="1009710"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="3978288" y="985611"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7F7B6946-7AE7-46E6-9650-2B1A1922285A}">
@@ -13267,8 +13267,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="19457599">
-          <a:off x="4179777" y="1040276"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="1015330"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13282,7 +13282,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13337,8 +13337,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="1040432"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="1015600"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EA218A74-1007-4F11-854B-D0AB9C17C46B}">
@@ -13348,8 +13348,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="892641"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="871336"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13417,8 +13417,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="898315"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="876875"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EB06242C-5A14-4E4D-BA03-C37C9B1E59A4}">
@@ -13428,8 +13428,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2142401">
-          <a:off x="4179777" y="1151671"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="1124066"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13443,7 +13443,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13498,8 +13498,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="1151827"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="1124336"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{086078EE-61D1-4163-9771-C8ADBEB150D1}">
@@ -13509,8 +13509,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="1115431"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="1088808"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13578,8 +13578,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="1121105"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="1094347"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{74BDB42B-70DA-4E41-9AF4-316B56732B92}">
@@ -13589,8 +13589,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="3310531">
-          <a:off x="3597068" y="1430157"/>
-          <a:ext cx="271394" cy="9854"/>
+          <a:off x="3764648" y="1395906"/>
+          <a:ext cx="264917" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13604,7 +13604,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271394" y="4927"/>
+                <a:pt x="264917" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13659,8 +13659,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3725980" y="1428300"/>
-        <a:ext cx="13569" cy="13569"/>
+        <a:off x="3890484" y="1394210"/>
+        <a:ext cx="13245" cy="13245"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{156C2641-8669-4587-BAA8-C192DBFD0D14}">
@@ -13670,8 +13670,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3810257" y="1449614"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="3972749" y="1415016"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13739,8 +13739,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3815931" y="1455288"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="3978288" y="1420555"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DDDA1EC8-14BF-456C-AF84-4A06F0E2F183}">
@@ -13750,8 +13750,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="19457599">
-          <a:off x="4179777" y="1485855"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="1450274"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13765,7 +13765,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13820,8 +13820,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="1486010"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="1450543"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{079B3B87-D84D-401D-A8BF-25F94FB423D7}">
@@ -13831,8 +13831,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="1338220"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="1306280"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13900,8 +13900,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="1343894"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="1311819"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7747348B-E35D-4D8E-8016-EFFDC246386B}">
@@ -13911,8 +13911,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2142401">
-          <a:off x="4179777" y="1597249"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="1559010"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13926,7 +13926,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13981,8 +13981,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="1597405"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="1559279"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{219D89CD-C2C9-483F-A9EE-603B2B03447E}">
@@ -13992,8 +13992,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="1561009"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="1523752"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14061,8 +14061,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="1566683"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="1529291"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E0595E8A-6955-4F04-B1DF-EC8A5EC429CB}">
@@ -14072,8 +14072,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="4808052">
-          <a:off x="2195612" y="2209920"/>
-          <a:ext cx="904533" cy="9854"/>
+          <a:off x="2396641" y="2157057"/>
+          <a:ext cx="882944" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14087,7 +14087,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="904533" y="4927"/>
+                <a:pt x="882944" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14142,8 +14142,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2625265" y="2192234"/>
-        <a:ext cx="45226" cy="45226"/>
+        <a:off x="2816040" y="2139911"/>
+        <a:ext cx="44147" cy="44147"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{AAE00ED5-7A50-4E00-9C43-96726D807466}">
@@ -14153,8 +14153,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2725370" y="2563561"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="2913756" y="2502376"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14222,8 +14222,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2731044" y="2569235"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="2919295" y="2507915"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FC613A49-6353-422D-90A5-5F1F17B3D267}">
@@ -14233,8 +14233,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="17350740">
-          <a:off x="2954440" y="2432709"/>
-          <a:ext cx="471762" cy="9854"/>
+          <a:off x="3137359" y="2374529"/>
+          <a:ext cx="460503" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14248,7 +14248,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="471762" y="4927"/>
+                <a:pt x="460503" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14303,8 +14303,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3178528" y="2425842"/>
-        <a:ext cx="23588" cy="23588"/>
+        <a:off x="3356098" y="2367944"/>
+        <a:ext cx="23025" cy="23025"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D384A683-97A1-41C2-9561-B742A21D37F5}">
@@ -14314,8 +14314,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3267814" y="2117982"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="3443253" y="2067432"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14383,8 +14383,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3273488" y="2123656"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="3448792" y="2072971"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C21F3F7B-733B-4BA0-90F4-CC79B16459D4}">
@@ -14394,8 +14394,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="18289469">
-          <a:off x="3597068" y="2098525"/>
-          <a:ext cx="271394" cy="9854"/>
+          <a:off x="3764648" y="2048321"/>
+          <a:ext cx="264917" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14409,7 +14409,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271394" y="4927"/>
+                <a:pt x="264917" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14464,8 +14464,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3725980" y="2096667"/>
-        <a:ext cx="13569" cy="13569"/>
+        <a:off x="3890484" y="2046626"/>
+        <a:ext cx="13245" cy="13245"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BD950F18-D0DD-4E2F-A688-DB439B149BA7}">
@@ -14475,8 +14475,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3810257" y="1895193"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="3972749" y="1849960"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14544,8 +14544,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3815931" y="1900867"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="3978288" y="1855499"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C8D02873-48A7-42A5-BDC7-07A84BCADA1B}">
@@ -14555,8 +14555,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="19457599">
-          <a:off x="4179777" y="1931433"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="1885218"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14570,7 +14570,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14625,8 +14625,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="1931589"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="1885487"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{40C1C745-500A-49A4-9205-E17A1F4CFF7F}">
@@ -14636,8 +14636,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="1783798"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="1741224"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14705,8 +14705,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="1789472"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="1746763"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{95E7918A-F4A7-4BEC-822F-1FF41C080B08}">
@@ -14716,8 +14716,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2142401">
-          <a:off x="4179777" y="2042828"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="1993953"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14731,7 +14731,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14786,8 +14786,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="2042983"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="1994223"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BBCF11DA-DEEE-4D17-902F-8BED4C2EE139}">
@@ -14797,8 +14797,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="2006587"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="1958696"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14866,8 +14866,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="2012261"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="1964235"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{525BA52B-15F9-4F54-8FEB-680D97CE98E0}">
@@ -14877,8 +14877,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="3310531">
-          <a:off x="3597068" y="2321314"/>
-          <a:ext cx="271394" cy="9854"/>
+          <a:off x="3764648" y="2265793"/>
+          <a:ext cx="264917" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14892,7 +14892,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271394" y="4927"/>
+                <a:pt x="264917" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14947,8 +14947,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3725980" y="2319457"/>
-        <a:ext cx="13569" cy="13569"/>
+        <a:off x="3890484" y="2264098"/>
+        <a:ext cx="13245" cy="13245"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{968D13AE-0941-45E2-8AEF-1B460827C755}">
@@ -14958,8 +14958,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3810257" y="2340771"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="3972749" y="2284904"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15027,8 +15027,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3815931" y="2346445"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="3978288" y="2290443"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{679731CD-A26E-4A9A-BC07-7AFDF78CEBC3}">
@@ -15038,8 +15038,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="19457599">
-          <a:off x="4179777" y="2377012"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="2320161"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15053,7 +15053,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15108,8 +15108,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="2377167"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="2320431"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{579A2D7B-8A69-41B1-A7E8-8FAB755A6529}">
@@ -15119,8 +15119,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="2229377"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="2176168"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15188,8 +15188,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="2235051"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="2181707"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8DD52A65-BBC2-4025-8D49-AD0B7A147E8C}">
@@ -15199,8 +15199,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2142401">
-          <a:off x="4179777" y="2488406"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="2428897"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15214,7 +15214,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15269,8 +15269,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="2488562"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="2429167"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FA7D94D7-7B77-449C-9CD1-C29DB97E3CE5}">
@@ -15280,8 +15280,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="2452166"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="2393640"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15349,8 +15349,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="2457840"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="2399179"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FE7B99A9-F2FD-47E5-8F39-258D34DD12FB}">
@@ -15360,8 +15360,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="4249260">
-          <a:off x="2954440" y="2878287"/>
-          <a:ext cx="471762" cy="9854"/>
+          <a:off x="3137359" y="2809473"/>
+          <a:ext cx="460503" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15375,7 +15375,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="471762" y="4927"/>
+                <a:pt x="460503" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15430,8 +15430,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3178528" y="2871421"/>
-        <a:ext cx="23588" cy="23588"/>
+        <a:off x="3356098" y="2802888"/>
+        <a:ext cx="23025" cy="23025"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BC3D2F8F-546E-4527-B5E3-3019E9791726}">
@@ -15441,8 +15441,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3267814" y="3009139"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="3443253" y="2937319"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15510,8 +15510,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3273488" y="3014813"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="3448792" y="2942858"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5EC8632B-0726-4933-AF1B-6CF7BDDC2A4E}">
@@ -15521,8 +15521,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="18289469">
-          <a:off x="3597068" y="2989682"/>
-          <a:ext cx="271394" cy="9854"/>
+          <a:off x="3764648" y="2918209"/>
+          <a:ext cx="264917" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15536,7 +15536,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271394" y="4927"/>
+                <a:pt x="264917" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15591,8 +15591,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3725980" y="2987824"/>
-        <a:ext cx="13569" cy="13569"/>
+        <a:off x="3890484" y="2916513"/>
+        <a:ext cx="13245" cy="13245"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{10F03FEF-F421-4D8D-AF82-38173881E63F}">
@@ -15602,8 +15602,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3810257" y="2786350"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="3972749" y="2719847"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15671,8 +15671,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3815931" y="2792024"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="3978288" y="2725386"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{48A2005B-B523-432F-940F-73AC4E2CDD92}">
@@ -15682,8 +15682,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="19457599">
-          <a:off x="4179777" y="2822590"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="2755105"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15697,7 +15697,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15752,8 +15752,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="2822746"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="2755375"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5C332DF8-9FDB-4FA8-8FA6-B70285EE94C6}">
@@ -15763,8 +15763,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="2674955"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="2611111"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15832,8 +15832,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="2680629"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="2616650"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{421D7DC5-AC82-4CA3-B0C6-99132315270E}">
@@ -15843,8 +15843,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2142401">
-          <a:off x="4179777" y="2933985"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="2863841"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -15858,7 +15858,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -15913,8 +15913,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="2934140"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="2864111"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5BD4F138-9204-4497-BC9D-E6886832D631}">
@@ -15924,8 +15924,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="2897744"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="2828583"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15993,8 +15993,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="2903418"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="2834122"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{66977582-265F-41CC-BF22-B87A18DB6259}">
@@ -16004,8 +16004,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="3310531">
-          <a:off x="3597068" y="3212471"/>
-          <a:ext cx="271394" cy="9854"/>
+          <a:off x="3764648" y="3135681"/>
+          <a:ext cx="264917" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16019,7 +16019,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271394" y="4927"/>
+                <a:pt x="264917" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16074,8 +16074,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3725980" y="3210614"/>
-        <a:ext cx="13569" cy="13569"/>
+        <a:off x="3890484" y="3133985"/>
+        <a:ext cx="13245" cy="13245"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{85851C21-305B-4DDB-BD38-B1E1EB2D92BC}">
@@ -16085,8 +16085,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3810257" y="3231928"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="3972749" y="3154791"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16154,8 +16154,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3815931" y="3237602"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="3978288" y="3160330"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{33105712-3748-443C-BD8A-97555B04D298}">
@@ -16165,8 +16165,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="19457599">
-          <a:off x="4179777" y="3268168"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="3190049"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16180,7 +16180,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16235,8 +16235,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="3268324"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="3190319"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{642481E9-CE1C-4F5D-9B0E-B8CC7B22FE2C}">
@@ -16246,8 +16246,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="3120534"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="3046055"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16315,8 +16315,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="3126208"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="3051594"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{81447E39-91AA-47AA-A0C8-D0005D2FA406}">
@@ -16326,8 +16326,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2142401">
-          <a:off x="4179777" y="3379563"/>
-          <a:ext cx="190863" cy="9854"/>
+          <a:off x="4333450" y="3298785"/>
+          <a:ext cx="186307" cy="9854"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -16341,7 +16341,7 @@
                 <a:pt x="0" y="4927"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="190863" y="4927"/>
+                <a:pt x="186307" y="4927"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -16396,8 +16396,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4270437" y="3379719"/>
-        <a:ext cx="9543" cy="9543"/>
+        <a:off x="4421946" y="3299054"/>
+        <a:ext cx="9315" cy="9315"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{83307214-4985-4CF3-AA4A-83247A8C8DCD}">
@@ -16407,8 +16407,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4352700" y="3343323"/>
-          <a:ext cx="387459" cy="193729"/>
+          <a:off x="4502246" y="3263527"/>
+          <a:ext cx="378211" cy="189105"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16476,8 +16476,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4358374" y="3348997"/>
-        <a:ext cx="376111" cy="182381"/>
+        <a:off x="4507785" y="3269066"/>
+        <a:ext cx="367133" cy="178027"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -18730,7 +18730,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table24" displayName="Table24" ref="A1:AF19" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table24" displayName="Table24" ref="A1:AF19" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A1:AF19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE19">
     <sortCondition descending="1" ref="C1:C19"/>
@@ -18738,33 +18738,33 @@
   <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cohort_gift_pattern"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="# donors"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="%" dataDxfId="35" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="%" dataDxfId="33" dataCellStyle="Percent"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="yr0"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="yr1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="yr2"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="yr3"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="yr4"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="c12"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_c12" dataDxfId="34" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="rank_c12" dataDxfId="33" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="%_c12" dataDxfId="32" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="rank_c12" dataDxfId="31" dataCellStyle="Percent"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="c13"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="%_c13" dataDxfId="32" dataCellStyle="Percent"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="rank_c13" dataDxfId="31" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="%_c13" dataDxfId="30" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="rank_c13" dataDxfId="29" dataCellStyle="Percent"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="c14"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="%_c14" dataDxfId="30" dataCellStyle="Percent"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="rank_c14" dataDxfId="29" dataCellStyle="Percent"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="%_c14" dataDxfId="28" dataCellStyle="Percent"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="rank_c14" dataDxfId="27" dataCellStyle="Percent"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="c15"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="%_c15" dataDxfId="28" dataCellStyle="Percent"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="rank_c15" dataDxfId="27" dataCellStyle="Percent"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="%_c15" dataDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="rank_c15" dataDxfId="25" dataCellStyle="Percent"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="c16"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="%_c16" dataDxfId="26" dataCellStyle="Percent"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="rank_c16" dataDxfId="25" dataCellStyle="Percent"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="%_c16" dataDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="rank_c16" dataDxfId="23" dataCellStyle="Percent"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="c17"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="%_c17" dataDxfId="24" dataCellStyle="Percent"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="rank_c17" dataDxfId="23" dataCellStyle="Percent"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="%_c17" dataDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="rank_c17" dataDxfId="21" dataCellStyle="Percent"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="c18"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="%_c18" dataDxfId="22" dataCellStyle="Percent"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="rank_c18" dataDxfId="21" dataCellStyle="Percent"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="%_c18" dataDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="rank_c18" dataDxfId="19" dataCellStyle="Percent"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="#_eligible_cohorts"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="#_gift_years">
       <calculatedColumnFormula>COUNTIF(Table24[[#This Row],[yr0]:[yr4]],"give")</calculatedColumnFormula>
@@ -18801,7 +18801,7 @@
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="total">
       <calculatedColumnFormula>SUM(B2:P2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="%" dataDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="%" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>Q2/$Q$17</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="rank">
@@ -18813,7 +18813,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:AE19" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:AE19" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:AE19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE19">
     <sortCondition descending="1" ref="C1:C19"/>
@@ -18821,33 +18821,33 @@
   <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="cohort_gift_pattern"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="%" dataDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="%" dataDxfId="14" dataCellStyle="Percent"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="0"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="2"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="3"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="4"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="c12"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_c12" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="rank_c12" dataDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="%_c12" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="rank_c12" dataDxfId="12" dataCellStyle="Percent"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="c13"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="%_c13" dataDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="rank_c13" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="%_c13" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="rank_c13" dataDxfId="10" dataCellStyle="Percent"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="c14"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="%_c14" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="rank_c14" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="%_c14" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="rank_c14" dataDxfId="8" dataCellStyle="Percent"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="c15"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="%_c15" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="rank_c15" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="%_c15" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="rank_c15" dataDxfId="6" dataCellStyle="Percent"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="c16"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="%_c16" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="rank_c16" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="%_c16" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="rank_c16" dataDxfId="4" dataCellStyle="Percent"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="c17"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="%_c17" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="rank_c17" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="%_c17" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="rank_c17" dataDxfId="2" dataCellStyle="Percent"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="c18"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="%_c18" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="rank_c18" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="%_c18" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="rank_c18" dataDxfId="0" dataCellStyle="Percent"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="#_eligible_cohorts"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="#_gift_years">
       <calculatedColumnFormula>COUNTIF(Table2[[#This Row],[0]:[4]],"give")</calculatedColumnFormula>
@@ -19163,25 +19163,25 @@
       <selection pane="bottomRight" activeCell="AF2" sqref="AF2:AF17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.76953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.40625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="10" max="10" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.40625" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" customWidth="1"/>
-    <col min="14" max="14" width="11.6796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6796875" customWidth="1"/>
+    <col min="1" max="1" width="26.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1015625" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5234375" customWidth="1"/>
+    <col min="10" max="10" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.41796875" customWidth="1"/>
+    <col min="12" max="12" width="9.5234375" customWidth="1"/>
+    <col min="14" max="14" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.68359375" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
     <col min="24" max="24" width="10" customWidth="1"/>
     <col min="27" max="27" width="10" customWidth="1"/>
-    <col min="30" max="30" width="9.76953125" customWidth="1"/>
+    <col min="30" max="30" width="9.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19279,7 +19279,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -19739,7 +19739,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -20774,7 +20774,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -21004,7 +21004,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -21119,7 +21119,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <f>SUM(B2:B17)</f>
         <v>2024554</v>
@@ -21181,7 +21181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="I19">
         <f>COUNTIF(I$2:I$17,"&lt;&gt;0")</f>
         <v>10</v>
@@ -21211,7 +21211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="4" t="s">
         <v>132</v>
       </c>
@@ -21234,7 +21234,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="C23">
         <v>1</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="C24">
         <v>2</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="C25">
         <v>10</v>
       </c>
@@ -21315,7 +21315,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="C26">
         <v>14</v>
       </c>
@@ -21342,7 +21342,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="C27">
         <v>16</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="C28">
         <v>3</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="C29">
         <v>4</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="C30">
         <v>5</v>
       </c>
@@ -21450,7 +21450,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="C31">
         <v>11</v>
       </c>
@@ -21477,7 +21477,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="C32">
         <v>12</v>
       </c>
@@ -21504,7 +21504,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C33">
         <v>15</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C34">
         <v>6</v>
       </c>
@@ -21558,7 +21558,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C35">
         <v>7</v>
       </c>
@@ -21585,7 +21585,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C36">
         <v>8</v>
       </c>
@@ -21612,7 +21612,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C37">
         <v>13</v>
       </c>
@@ -21639,7 +21639,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C38">
         <v>9</v>
       </c>
@@ -21666,7 +21666,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>182</v>
       </c>
@@ -21683,7 +21683,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -21703,7 +21703,7 @@
         <v>36668</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>252</v>
       </c>
@@ -21723,7 +21723,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="20" t="s">
         <v>17</v>
       </c>
@@ -21740,7 +21740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="20" t="s">
         <v>24</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="20" t="s">
         <v>18</v>
       </c>
@@ -21774,7 +21774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="20" t="s">
         <v>27</v>
       </c>
@@ -21791,7 +21791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="20" t="s">
         <v>19</v>
       </c>
@@ -21808,7 +21808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="20" t="s">
         <v>102</v>
       </c>
@@ -21825,7 +21825,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="20" t="s">
         <v>21</v>
       </c>
@@ -21842,7 +21842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="20" t="s">
         <v>25</v>
       </c>
@@ -21851,7 +21851,7 @@
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="20" t="s">
         <v>29</v>
       </c>
@@ -21860,7 +21860,7 @@
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="20" t="s">
         <v>28</v>
       </c>
@@ -21869,7 +21869,7 @@
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="20" t="s">
         <v>23</v>
       </c>
@@ -21878,7 +21878,7 @@
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="20" t="s">
         <v>20</v>
       </c>
@@ -21887,7 +21887,7 @@
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="20" t="s">
         <v>100</v>
       </c>
@@ -21896,7 +21896,7 @@
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="20" t="s">
         <v>101</v>
       </c>
@@ -21905,7 +21905,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="20" t="s">
         <v>26</v>
       </c>
@@ -21916,10 +21916,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D23:H38 J23:J38">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"give"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"skip"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21938,17 +21938,17 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.76953125" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="6.7890625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="6.76953125" style="40"/>
+    <col min="1" max="16384" width="6.7890625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K1" s="40" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="40">
         <v>1</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="40">
         <v>2</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="40">
         <v>3</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="40">
         <v>4</v>
       </c>
@@ -21992,7 +21992,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="40">
         <v>2</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="40">
         <v>3</v>
       </c>
@@ -22008,7 +22008,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I16" s="40" t="s">
         <v>273</v>
       </c>
@@ -22026,21 +22026,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.08984375" customWidth="1"/>
-    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.62890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1015625" customWidth="1"/>
+    <col min="17" max="17" width="11.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -22068,7 +22068,7 @@
         <v>1548633</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>161986</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -22139,7 +22139,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>102</v>
       </c>
@@ -22188,7 +22188,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -22208,7 +22208,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -22231,7 +22231,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -22248,7 +22248,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -22265,7 +22265,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -22282,7 +22282,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -22302,7 +22302,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>100</v>
       </c>
@@ -22322,7 +22322,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.75">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>101</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -22359,7 +22359,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -22400,7 +22400,7 @@
         <v>36661</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>183</v>
       </c>
@@ -22427,7 +22427,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>-1633065</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M22" t="s">
         <v>184</v>
       </c>
@@ -22467,7 +22467,7 @@
         <v>-1752194</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>184</v>
       </c>
@@ -22482,7 +22482,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>56797</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>184</v>
       </c>
@@ -22506,47 +22506,47 @@
         <v>1752194</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="5" t="s">
         <v>16</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="6" t="s">
         <v>17</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="5" t="s">
         <v>24</v>
       </c>
@@ -22570,7 +22570,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="6" t="s">
         <v>18</v>
       </c>
@@ -22578,7 +22578,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="5" t="s">
         <v>27</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="6" t="s">
         <v>19</v>
       </c>
@@ -22594,7 +22594,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="5" t="s">
         <v>102</v>
       </c>
@@ -22602,7 +22602,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="6" t="s">
         <v>21</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="5" t="s">
         <v>25</v>
       </c>
@@ -22618,7 +22618,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="6" t="s">
         <v>29</v>
       </c>
@@ -22626,7 +22626,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="5" t="s">
         <v>28</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="6" t="s">
         <v>23</v>
       </c>
@@ -22642,7 +22642,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="5" t="s">
         <v>20</v>
       </c>
@@ -22650,7 +22650,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="6" t="s">
         <v>100</v>
       </c>
@@ -22658,7 +22658,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="5" t="s">
         <v>101</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="6" t="s">
         <v>26</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J58" t="s">
         <v>311</v>
       </c>
@@ -22685,7 +22685,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
         <v>311</v>
       </c>
@@ -22696,7 +22696,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>183</v>
       </c>
@@ -22704,12 +22704,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I61" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -22720,7 +22720,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" t="s">
         <v>313</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>185</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" t="s">
         <v>313</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" t="s">
         <v>315</v>
       </c>
@@ -22780,18 +22780,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -22802,10 +22802,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -22816,16 +22816,16 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>201</v>
       </c>
       <c r="C5" s="60"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="20"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -22839,29 +22839,29 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>203</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>204</v>
       </c>
       <c r="D9" s="60"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>192</v>
       </c>
       <c r="D10" s="60"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>185</v>
       </c>
@@ -22872,33 +22872,33 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>194</v>
       </c>
       <c r="C13" s="60"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>186</v>
       </c>
@@ -22906,12 +22906,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D25">
         <v>0</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
@@ -22954,7 +22954,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="6" t="s">
         <v>17</v>
       </c>
@@ -22980,7 +22980,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
@@ -23006,7 +23006,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="6" t="s">
         <v>18</v>
       </c>
@@ -23032,7 +23032,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
@@ -23058,7 +23058,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="6" t="s">
         <v>19</v>
       </c>
@@ -23084,7 +23084,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="5" t="s">
         <v>102</v>
       </c>
@@ -23110,7 +23110,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="6" t="s">
         <v>21</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="5" t="s">
         <v>25</v>
       </c>
@@ -23162,7 +23162,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="6" t="s">
         <v>29</v>
       </c>
@@ -23188,7 +23188,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="5" t="s">
         <v>28</v>
       </c>
@@ -23214,7 +23214,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="6" t="s">
         <v>23</v>
       </c>
@@ -23240,7 +23240,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="5" t="s">
         <v>20</v>
       </c>
@@ -23266,7 +23266,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="6" t="s">
         <v>100</v>
       </c>
@@ -23292,7 +23292,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="5" t="s">
         <v>101</v>
       </c>
@@ -23318,7 +23318,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="6" t="s">
         <v>26</v>
       </c>
@@ -23361,33 +23361,33 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.6796875" customWidth="1"/>
-    <col min="2" max="2" width="9.40625" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" customWidth="1"/>
-    <col min="4" max="4" width="16.86328125" customWidth="1"/>
-    <col min="5" max="5" width="11.31640625" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" customWidth="1"/>
-    <col min="8" max="8" width="22.6328125" customWidth="1"/>
-    <col min="9" max="9" width="23.36328125" customWidth="1"/>
-    <col min="10" max="10" width="16.90625" customWidth="1"/>
-    <col min="11" max="11" width="21.40625" customWidth="1"/>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="13" width="17.58984375" customWidth="1"/>
-    <col min="14" max="14" width="22.08984375" customWidth="1"/>
-    <col min="15" max="15" width="21.40625" customWidth="1"/>
-    <col min="16" max="16" width="12.31640625" customWidth="1"/>
+    <col min="1" max="1" width="18.68359375" customWidth="1"/>
+    <col min="2" max="2" width="9.41796875" customWidth="1"/>
+    <col min="3" max="3" width="12.83984375" customWidth="1"/>
+    <col min="4" max="4" width="16.83984375" customWidth="1"/>
+    <col min="5" max="5" width="11.3125" customWidth="1"/>
+    <col min="6" max="6" width="15.1015625" customWidth="1"/>
+    <col min="7" max="7" width="20.5234375" customWidth="1"/>
+    <col min="8" max="8" width="22.62890625" customWidth="1"/>
+    <col min="9" max="9" width="23.3671875" customWidth="1"/>
+    <col min="10" max="10" width="16.89453125" customWidth="1"/>
+    <col min="11" max="11" width="21.41796875" customWidth="1"/>
+    <col min="12" max="12" width="19.47265625" customWidth="1"/>
+    <col min="13" max="13" width="17.578125" customWidth="1"/>
+    <col min="14" max="14" width="22.1015625" customWidth="1"/>
+    <col min="15" max="15" width="21.41796875" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23446,7 +23446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -23570,7 +23570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -23632,7 +23632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -23694,7 +23694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -23818,7 +23818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -23880,7 +23880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -23942,7 +23942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -24004,7 +24004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -24066,7 +24066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -24128,7 +24128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -24252,7 +24252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -24314,7 +24314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -24376,7 +24376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="17:17" x14ac:dyDescent="0.75">
+    <row r="17" spans="17:17" x14ac:dyDescent="0.55000000000000004">
       <c r="Q17">
         <f>SUM(Q2:Q16)</f>
         <v>2020629</v>
@@ -24394,23 +24394,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="10"/>
-    <col min="3" max="3" width="63.1796875" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="2" width="8.734375" style="10"/>
+    <col min="3" max="3" width="63.15625" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>49</v>
       </c>
@@ -24418,7 +24418,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>50</v>
       </c>
@@ -24426,7 +24426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>51</v>
       </c>
@@ -24434,7 +24434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>52</v>
       </c>
@@ -24442,7 +24442,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="59" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>53</v>
       </c>
@@ -24450,7 +24450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>54</v>
       </c>
@@ -24458,7 +24458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>55</v>
       </c>
@@ -24466,7 +24466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>56</v>
       </c>
@@ -24474,7 +24474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>57</v>
       </c>
@@ -24482,7 +24482,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>58</v>
       </c>
@@ -24490,7 +24490,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>59</v>
       </c>
@@ -24498,7 +24498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
         <v>60</v>
       </c>
@@ -24506,7 +24506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
         <v>61</v>
       </c>
@@ -24514,7 +24514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -24522,12 +24522,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
         <v>64</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
         <v>65</v>
       </c>
@@ -24543,7 +24543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
         <v>66</v>
       </c>
@@ -24551,7 +24551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
         <v>67</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
         <v>68</v>
       </c>
@@ -24567,7 +24567,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
         <v>69</v>
       </c>
@@ -24575,7 +24575,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
         <v>70</v>
       </c>
@@ -24583,7 +24583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
         <v>71</v>
       </c>
@@ -24591,7 +24591,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
         <v>72</v>
       </c>
@@ -24599,7 +24599,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>73</v>
       </c>
@@ -24607,7 +24607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
         <v>74</v>
       </c>
@@ -24615,7 +24615,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
         <v>75</v>
       </c>
@@ -24623,7 +24623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
         <v>76</v>
       </c>
@@ -24631,7 +24631,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
         <v>77</v>
       </c>
@@ -24639,7 +24639,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
         <v>78</v>
       </c>
@@ -24647,7 +24647,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
         <v>79</v>
       </c>
@@ -24655,82 +24655,82 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.75">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="3:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="49" spans="3:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="10" t="s">
         <v>80</v>
       </c>
@@ -24744,24 +24744,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="68.5" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="12.15625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.15625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="68.47265625" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>83</v>
       </c>
@@ -24772,7 +24772,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>84</v>
       </c>
@@ -24783,7 +24783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>85</v>
       </c>
@@ -24794,7 +24794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>86</v>
       </c>
@@ -24805,7 +24805,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>87</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>88</v>
       </c>
@@ -24827,7 +24827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>89</v>
       </c>
@@ -24838,7 +24838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>90</v>
       </c>
@@ -24846,7 +24846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>91</v>
       </c>
@@ -24857,7 +24857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>93</v>
       </c>
@@ -24879,7 +24879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
         <v>94</v>
       </c>
@@ -24890,7 +24890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
         <v>95</v>
       </c>
@@ -24901,7 +24901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
         <v>96</v>
       </c>
@@ -24912,7 +24912,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="10" t="s">
         <v>101</v>
       </c>
@@ -24920,7 +24920,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="10" t="s">
         <v>102</v>
       </c>
@@ -24928,92 +24928,92 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.75">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.75">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.75">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="37" spans="3:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="39" spans="3:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" s="10" t="s">
         <v>16</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.75">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" s="10" t="s">
         <v>17</v>
       </c>
@@ -25035,7 +25035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.75">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="10" t="s">
         <v>18</v>
       </c>
@@ -25046,7 +25046,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.75">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D42" s="10" t="s">
         <v>19</v>
       </c>
@@ -25057,7 +25057,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.75">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" s="10" t="s">
         <v>20</v>
       </c>
@@ -25068,7 +25068,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.75">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D44" s="10" t="s">
         <v>21</v>
       </c>
@@ -25079,7 +25079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.75">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D45" s="10" t="s">
         <v>22</v>
       </c>
@@ -25090,7 +25090,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.75">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D46" s="10" t="s">
         <v>23</v>
       </c>
@@ -25101,7 +25101,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.75">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D47" s="10" t="s">
         <v>24</v>
       </c>
@@ -25112,7 +25112,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.75">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D48" s="10" t="s">
         <v>25</v>
       </c>
@@ -25123,7 +25123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.75">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D49" s="10" t="s">
         <v>26</v>
       </c>
@@ -25134,7 +25134,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.75">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D50" s="10" t="s">
         <v>27</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.75">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" s="10" t="s">
         <v>28</v>
       </c>
@@ -25156,7 +25156,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.75">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D52" s="10" t="s">
         <v>29</v>
       </c>
@@ -25167,7 +25167,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.75">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D53" s="10" t="s">
         <v>30</v>
       </c>
@@ -25188,21 +25188,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.40625" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
-    <col min="7" max="7" width="20.6796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.31640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.41796875" customWidth="1"/>
+    <col min="5" max="5" width="17.734375" customWidth="1"/>
+    <col min="7" max="7" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -25237,7 +25237,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -25278,7 +25278,7 @@
         <v>26929</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="3" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>218</v>
       </c>
@@ -25309,7 +25309,7 @@
       <c r="U3" s="21"/>
       <c r="V3" s="23"/>
     </row>
-    <row r="4" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -25341,7 +25341,7 @@
       <c r="U4" s="21"/>
       <c r="V4" s="25"/>
     </row>
-    <row r="5" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -25373,7 +25373,7 @@
       <c r="U5" s="21"/>
       <c r="V5" s="23"/>
     </row>
-    <row r="6" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -25389,7 +25389,7 @@
       <c r="U6" s="21"/>
       <c r="V6" s="25"/>
     </row>
-    <row r="7" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="L7" s="46"/>
       <c r="M7" s="21"/>
       <c r="N7" s="46"/>
@@ -25402,7 +25402,7 @@
       <c r="U7" s="21"/>
       <c r="V7" s="23"/>
     </row>
-    <row r="8" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="34" t="s">
         <v>132</v>
       </c>
@@ -25430,7 +25430,7 @@
       <c r="U8" s="21"/>
       <c r="V8" s="25"/>
     </row>
-    <row r="9" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="L9" s="46"/>
       <c r="M9" s="21"/>
       <c r="N9" s="46"/>
@@ -25443,7 +25443,7 @@
       <c r="U9" s="21"/>
       <c r="V9" s="23"/>
     </row>
-    <row r="10" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="L10" s="46"/>
       <c r="M10" s="21"/>
       <c r="N10" s="46"/>
@@ -25458,7 +25458,7 @@
       <c r="U10" s="21"/>
       <c r="V10" s="25"/>
     </row>
-    <row r="11" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -25474,7 +25474,7 @@
       <c r="U11" s="21"/>
       <c r="V11" s="23"/>
     </row>
-    <row r="12" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -25512,7 +25512,7 @@
       <c r="U12" s="21"/>
       <c r="V12" s="25"/>
     </row>
-    <row r="13" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -25550,7 +25550,7 @@
       <c r="U13" s="21"/>
       <c r="V13" s="23"/>
     </row>
-    <row r="14" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -25584,7 +25584,7 @@
       <c r="U14" s="21"/>
       <c r="V14" s="25"/>
     </row>
-    <row r="15" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -25618,7 +25618,7 @@
       <c r="U15" s="21"/>
       <c r="V15" s="23"/>
     </row>
-    <row r="16" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>217</v>
       </c>
@@ -25652,7 +25652,7 @@
       <c r="U16" s="21"/>
       <c r="V16" s="25"/>
     </row>
-    <row r="17" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -25683,7 +25683,7 @@
       <c r="U17" s="21"/>
       <c r="V17" s="23"/>
     </row>
-    <row r="18" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B18" t="s">
         <v>102</v>
       </c>
@@ -25720,7 +25720,7 @@
       <c r="U18" s="21"/>
       <c r="V18" s="25"/>
     </row>
-    <row r="19" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -25751,7 +25751,7 @@
       <c r="U19" s="21"/>
       <c r="V19" s="23"/>
     </row>
-    <row r="20" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -25771,7 +25771,7 @@
       <c r="U20" s="21"/>
       <c r="V20" s="25"/>
     </row>
-    <row r="21" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -25791,7 +25791,7 @@
       <c r="U21" s="21"/>
       <c r="V21" s="23"/>
     </row>
-    <row r="22" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -25807,7 +25807,7 @@
       <c r="U22" s="21"/>
       <c r="V22" s="25"/>
     </row>
-    <row r="23" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" t="s">
         <v>23</v>
       </c>
@@ -25823,7 +25823,7 @@
       <c r="U23" s="21"/>
       <c r="V23" s="23"/>
     </row>
-    <row r="24" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -25839,7 +25839,7 @@
       <c r="U24" s="21"/>
       <c r="V24" s="25"/>
     </row>
-    <row r="25" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" t="s">
         <v>100</v>
       </c>
@@ -25867,7 +25867,7 @@
       <c r="U25" s="21"/>
       <c r="V25" s="23"/>
     </row>
-    <row r="26" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" t="s">
         <v>101</v>
       </c>
@@ -25900,7 +25900,7 @@
       <c r="U26" s="21"/>
       <c r="V26" s="25"/>
     </row>
-    <row r="27" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -25931,7 +25931,7 @@
       <c r="U27" s="21"/>
       <c r="V27" s="23"/>
     </row>
-    <row r="28" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="F28" t="s">
         <v>23</v>
       </c>
@@ -25963,7 +25963,7 @@
       <c r="U28" s="21"/>
       <c r="V28" s="25"/>
     </row>
-    <row r="29" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="F29" t="s">
         <v>29</v>
       </c>
@@ -25995,7 +25995,7 @@
       <c r="U29" s="21"/>
       <c r="V29" s="23"/>
     </row>
-    <row r="30" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="F30" t="s">
         <v>102</v>
       </c>
@@ -26023,7 +26023,7 @@
       <c r="U30" s="21"/>
       <c r="V30" s="25"/>
     </row>
-    <row r="31" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="31" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -26060,7 +26060,7 @@
       <c r="U31" s="21"/>
       <c r="V31" s="23"/>
     </row>
-    <row r="32" spans="1:22" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="32" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -26098,7 +26098,7 @@
       <c r="U32" s="24"/>
       <c r="V32" s="25"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -26137,7 +26137,7 @@
         <v>3.2461750435062442E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -26149,7 +26149,7 @@
         <v>3.086209536068785E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -26164,7 +26164,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -26176,7 +26176,7 @@
         <v>2.1161062145974775E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -26191,7 +26191,7 @@
         <v>42233</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -26224,7 +26224,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -26236,7 +26236,7 @@
         <v>7.5358750769365353E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -26248,7 +26248,7 @@
         <v>7.3015506031511952E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -26263,7 +26263,7 @@
         <v>257939</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -26275,7 +26275,7 @@
         <v>6.857896266117618E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -26287,7 +26287,7 @@
         <v>6.1299282342244955E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -26299,7 +26299,7 @@
         <v>5.9299713499276719E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -26311,13 +26311,13 @@
         <v>4.5396461388013207E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B48">
         <f>SUM(B32:B47)</f>
         <v>320069</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>211</v>
       </c>
@@ -26337,7 +26337,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -26357,77 +26357,77 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -26462,31 +26462,31 @@
   <dimension ref="A1:AE92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J71" sqref="J71:AC76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.76953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.40625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="10" max="10" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.40625" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" customWidth="1"/>
-    <col min="14" max="14" width="11.6796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6796875" customWidth="1"/>
+    <col min="1" max="1" width="26.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1015625" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5234375" customWidth="1"/>
+    <col min="10" max="10" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.41796875" customWidth="1"/>
+    <col min="12" max="12" width="9.5234375" customWidth="1"/>
+    <col min="14" max="14" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.68359375" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
     <col min="24" max="24" width="10" customWidth="1"/>
     <col min="27" max="27" width="10" customWidth="1"/>
-    <col min="30" max="30" width="9.76953125" customWidth="1"/>
+    <col min="30" max="30" width="9.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26581,7 +26581,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -26693,7 +26693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -26805,7 +26805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -26917,7 +26917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -27029,7 +27029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -27141,7 +27141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -27253,7 +27253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -27365,7 +27365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -27477,7 +27477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -27589,7 +27589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -27701,7 +27701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -27813,7 +27813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -27925,7 +27925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -28037,7 +28037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -28149,7 +28149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -28261,7 +28261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -28373,7 +28373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <f>SUM(B2:B17)</f>
         <v>2024554</v>
@@ -28435,7 +28435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="I19">
         <f>COUNTIF(I$2:I$17,"&lt;&gt;0")</f>
         <v>10</v>
@@ -28465,7 +28465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -28473,7 +28473,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -28487,7 +28487,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -28501,7 +28501,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>163</v>
       </c>
@@ -28515,7 +28515,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -28529,7 +28529,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>165</v>
       </c>
@@ -28537,10 +28537,10 @@
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="18"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>139</v>
       </c>
@@ -28566,7 +28566,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="B30">
         <v>1</v>
       </c>
@@ -28596,7 +28596,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="B31">
         <v>2</v>
       </c>
@@ -28626,7 +28626,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="B32">
         <v>3</v>
       </c>
@@ -28656,7 +28656,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B33">
         <v>6</v>
       </c>
@@ -28686,7 +28686,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B34">
         <v>7</v>
       </c>
@@ -28716,7 +28716,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B35">
         <v>5</v>
       </c>
@@ -28746,7 +28746,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B36">
         <v>9</v>
       </c>
@@ -28776,7 +28776,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B37">
         <v>12</v>
       </c>
@@ -28806,7 +28806,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B38">
         <v>10</v>
       </c>
@@ -28836,7 +28836,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B39">
         <v>16</v>
       </c>
@@ -28866,7 +28866,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B40">
         <v>13</v>
       </c>
@@ -28896,7 +28896,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B41">
         <v>8</v>
       </c>
@@ -28926,7 +28926,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B42">
         <v>14</v>
       </c>
@@ -28956,7 +28956,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B43">
         <v>11</v>
       </c>
@@ -28986,7 +28986,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B44">
         <v>15</v>
       </c>
@@ -29016,7 +29016,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.75">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B45">
         <v>4</v>
       </c>
@@ -29046,7 +29046,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>0</v>
       </c>
@@ -29063,7 +29063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>2024554</v>
       </c>
@@ -29080,7 +29080,7 @@
         <v>36668</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -29156,7 +29156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -29180,7 +29180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -29204,7 +29204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -29224,7 +29224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -29244,7 +29244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -29264,7 +29264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -29272,7 +29272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -29280,7 +29280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -29288,7 +29288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -29296,7 +29296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -29304,7 +29304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -29312,7 +29312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -29320,7 +29320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -29328,7 +29328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="C71">
         <v>0</v>
       </c>
@@ -29396,7 +29396,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="5" t="s">
         <v>16</v>
       </c>
@@ -29481,7 +29481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="6" t="s">
         <v>17</v>
       </c>
@@ -29542,7 +29542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="5" t="s">
         <v>24</v>
       </c>
@@ -29611,7 +29611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="6" t="s">
         <v>18</v>
       </c>
@@ -29680,7 +29680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="5" t="s">
         <v>27</v>
       </c>
@@ -29749,7 +29749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="6" t="s">
         <v>19</v>
       </c>
@@ -29775,7 +29775,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="5" t="s">
         <v>102</v>
       </c>
@@ -29801,7 +29801,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6" t="s">
         <v>21</v>
       </c>
@@ -29827,7 +29827,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="5" t="s">
         <v>25</v>
       </c>
@@ -29853,7 +29853,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6" t="s">
         <v>29</v>
       </c>
@@ -29879,7 +29879,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="5" t="s">
         <v>28</v>
       </c>
@@ -29905,7 +29905,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="6" t="s">
         <v>23</v>
       </c>
@@ -29931,7 +29931,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="5" t="s">
         <v>20</v>
       </c>
@@ -29957,7 +29957,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="6" t="s">
         <v>100</v>
       </c>
@@ -29983,7 +29983,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="5" t="s">
         <v>101</v>
       </c>
@@ -30009,7 +30009,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6" t="s">
         <v>26</v>
       </c>
@@ -30035,7 +30035,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -30045,10 +30045,10 @@
     <sortCondition ref="F30:F45"/>
   </sortState>
   <conditionalFormatting sqref="D30:H45 J30:J45">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"give"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"skip"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30065,26 +30065,26 @@
   <dimension ref="A1:AC66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="Y9" sqref="Y9:AC25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.6796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.68359375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.47265625" customWidth="1"/>
+    <col min="19" max="19" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="37"/>
       <c r="B2" s="16" t="s">
         <v>16</v>
@@ -30157,7 +30157,7 @@
       <c r="AB2" s="37"/>
       <c r="AC2" s="37"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="37" t="s">
         <v>182</v>
       </c>
@@ -30202,7 +30202,7 @@
       <c r="AB3" s="37"/>
       <c r="AC3" s="37"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="37" t="s">
         <v>183</v>
       </c>
@@ -30247,7 +30247,7 @@
       <c r="AB4" s="37"/>
       <c r="AC4" s="37"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16" t="s">
         <v>184</v>
       </c>
@@ -30289,7 +30289,7 @@
       <c r="AB5" s="37"/>
       <c r="AC5" s="37"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="37" t="s">
         <v>185</v>
       </c>
@@ -30331,7 +30331,7 @@
       <c r="AB6" s="37"/>
       <c r="AC6" s="37"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="16" t="s">
         <v>186</v>
       </c>
@@ -30373,7 +30373,7 @@
       <c r="AB7" s="37"/>
       <c r="AC7" s="37"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="P9">
         <f>SUM(P10:P11)</f>
         <v>1876468</v>
@@ -30400,7 +30400,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="M10" t="s">
         <v>183</v>
       </c>
@@ -30432,7 +30432,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="N11" t="s">
         <v>291</v>
       </c>
@@ -30458,7 +30458,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -30490,7 +30490,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -30519,7 +30519,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>183</v>
       </c>
@@ -30545,7 +30545,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15" t="s">
         <v>184</v>
       </c>
@@ -30568,7 +30568,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -30594,7 +30594,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15" t="s">
         <v>186</v>
       </c>
@@ -30617,7 +30617,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="O18" t="s">
         <v>269</v>
       </c>
@@ -30628,7 +30628,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="O19" t="s">
         <v>270</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="O20" t="s">
         <v>272</v>
       </c>
@@ -30650,7 +30650,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -30667,7 +30667,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -30684,7 +30684,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -30701,7 +30701,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -30715,7 +30715,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
@@ -30734,7 +30734,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
         <v>102</v>
       </c>
@@ -30742,7 +30742,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
@@ -30750,7 +30750,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
@@ -30758,7 +30758,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
@@ -30774,7 +30774,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
@@ -30782,7 +30782,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
@@ -30790,7 +30790,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6" t="s">
         <v>100</v>
       </c>
@@ -30798,7 +30798,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5" t="s">
         <v>101</v>
       </c>
@@ -30806,7 +30806,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6" t="s">
         <v>26</v>
       </c>
@@ -30814,7 +30814,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -30834,7 +30834,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -30842,7 +30842,7 @@
         <v>1548633</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -30853,7 +30853,7 @@
         <v>161986</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>44401</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -30878,7 +30878,7 @@
         <v>37634</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -30889,7 +30889,7 @@
         <v>17615</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -30906,7 +30906,7 @@
         <v>13780</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>13098</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -30940,7 +30940,7 @@
         <v>8132</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -30954,7 +30954,7 @@
         <v>7626</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -30965,7 +30965,7 @@
         <v>6912</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -30979,7 +30979,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -30993,7 +30993,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -31010,7 +31010,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -31027,7 +31027,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -31044,7 +31044,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -31058,7 +31058,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -31099,7 +31099,7 @@
         <v>36661</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -31119,7 +31119,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>239</v>
       </c>
@@ -31139,7 +31139,7 @@
         <v>36661</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>206</v>
       </c>
@@ -31152,7 +31152,7 @@
         <v>-1576268</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>321</v>
       </c>
@@ -31161,7 +31161,7 @@
         <v>67477</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>322</v>
       </c>
@@ -31170,7 +31170,7 @@
         <v>56797</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>323</v>
       </c>
@@ -31193,9 +31193,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="41" t="s">
         <v>182</v>
       </c>
@@ -31212,7 +31212,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="41" t="s">
         <v>260</v>
       </c>
@@ -31229,7 +31229,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="41"/>
       <c r="B3" s="41" t="s">
         <v>262</v>
@@ -31244,7 +31244,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41" t="s">
@@ -31257,7 +31257,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41" t="s">
@@ -31270,7 +31270,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -31281,7 +31281,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -31292,7 +31292,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -31303,7 +31303,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -31314,7 +31314,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -31323,7 +31323,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -31332,7 +31332,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -31341,7 +31341,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -31350,7 +31350,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -31359,7 +31359,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -31368,7 +31368,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -31377,7 +31377,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
@@ -31396,17 +31396,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F9D859-D1CF-4B3C-9C69-A1F06CBC5639}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -31456,7 +31456,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -31516,7 +31516,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -31576,7 +31576,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -31636,7 +31636,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -31696,7 +31696,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -31756,7 +31756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -31816,7 +31816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -31876,7 +31876,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -31936,7 +31936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -31996,7 +31996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -32056,7 +32056,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -32116,7 +32116,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -32176,7 +32176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -32236,7 +32236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -32296,7 +32296,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -32356,7 +32356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -32416,7 +32416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <f>SUM(B2:B17)</f>
         <v>161236909</v>
